--- a/data/trans_orig/P61-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P61-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20077</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12282</v>
+        <v>11818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31416</v>
+        <v>31333</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01945937550490129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01190460398718698</v>
+        <v>0.01145449378264965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03044957121808774</v>
+        <v>0.03036963588373221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -765,19 +765,19 @@
         <v>80824</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66189</v>
+        <v>65246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101223</v>
+        <v>100001</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06145790373371464</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05032949120203536</v>
+        <v>0.04961282078100458</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.076969039962442</v>
+        <v>0.07604017279620129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -786,19 +786,19 @@
         <v>100901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83319</v>
+        <v>83479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122992</v>
+        <v>121267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04299438495026698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03550285507988197</v>
+        <v>0.03557081720632749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05240777522257459</v>
+        <v>0.05167236662029701</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>35533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25962</v>
+        <v>25110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48098</v>
+        <v>49713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03444082872935769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02516401582200837</v>
+        <v>0.02433751622319062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04661876716481084</v>
+        <v>0.04818424528059418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -836,19 +836,19 @@
         <v>25911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16098</v>
+        <v>16616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37245</v>
+        <v>37180</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01970276331251838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01224100338077995</v>
+        <v>0.01263494870718729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02832044461842631</v>
+        <v>0.02827101066677646</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -857,19 +857,19 @@
         <v>61445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45907</v>
+        <v>47043</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78665</v>
+        <v>75685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02618195577785829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01956110655837105</v>
+        <v>0.02004547809653583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03351964604044067</v>
+        <v>0.0322499695864953</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>27257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18662</v>
+        <v>19191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38129</v>
+        <v>38640</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02641873656804843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01808857488605775</v>
+        <v>0.01860056720892682</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03695708782415469</v>
+        <v>0.03745163519184042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -907,19 +907,19 @@
         <v>23947</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16622</v>
+        <v>15484</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36076</v>
+        <v>33813</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01820877151029863</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01263951368904988</v>
+        <v>0.0117738665418044</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0274321425744296</v>
+        <v>0.02571125725776352</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -928,19 +928,19 @@
         <v>51203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39118</v>
+        <v>40024</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65373</v>
+        <v>67000</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02181806094133199</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01666855787187417</v>
+        <v>0.01705464938141359</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02785595007737104</v>
+        <v>0.02854895826860699</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2694</v>
+        <v>2541</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13625</v>
+        <v>13217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006037582627679612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00261129636744064</v>
+        <v>0.002462848639384949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01320624303382864</v>
+        <v>0.01281027837602491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>802</v>
@@ -978,19 +978,19 @@
         <v>814985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>776009</v>
+        <v>780558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>847578</v>
+        <v>849725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6197073620628953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5900703350880374</v>
+        <v>0.5935293592417337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6444906521964533</v>
+        <v>0.6461234667565439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>808</v>
@@ -999,19 +999,19 @@
         <v>821214</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>771544</v>
+        <v>780158</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>864328</v>
+        <v>874006</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3499240154249785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3287594318254352</v>
+        <v>0.3324299200194834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3682950525113889</v>
+        <v>0.3724191194869136</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>480890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450984</v>
+        <v>451183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>510366</v>
+        <v>511812</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4661034262622584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4371175067530273</v>
+        <v>0.4373102506207461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4946732208935367</v>
+        <v>0.4960753711939878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -1049,19 +1049,19 @@
         <v>151068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128872</v>
+        <v>130502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>174163</v>
+        <v>175585</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1148704743624585</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09799326734944223</v>
+        <v>0.0992327756985527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1324316254235375</v>
+        <v>0.133513275002681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>657</v>
@@ -1070,19 +1070,19 @@
         <v>631957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>588838</v>
+        <v>591030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>674929</v>
+        <v>673830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.269280556769076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2509073418412536</v>
+        <v>0.2518413191185514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2875909504253523</v>
+        <v>0.2871230047174962</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>5300</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1972</v>
+        <v>1956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13230</v>
+        <v>12070</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005136694437960322</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001911100936270571</v>
+        <v>0.001896207472500745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01282364441784212</v>
+        <v>0.01169885334091643</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1120,19 +1120,19 @@
         <v>5770</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1998</v>
+        <v>1964</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11682</v>
+        <v>12388</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004387777059117441</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001519376446518246</v>
+        <v>0.001493601300834781</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008882892859455767</v>
+        <v>0.009419743936827525</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1141,19 +1141,19 @@
         <v>11070</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5782</v>
+        <v>5693</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19576</v>
+        <v>19107</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004717018360531174</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002463676122361262</v>
+        <v>0.002425835713007357</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008341551289888522</v>
+        <v>0.008141601794945576</v>
       </c>
     </row>
     <row r="10">
@@ -1170,19 +1170,19 @@
         <v>76233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60856</v>
+        <v>60914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95124</v>
+        <v>94328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07388857138085624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05898478542206305</v>
+        <v>0.059041241467378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09219951716182802</v>
+        <v>0.09142719733557429</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1191,19 +1191,19 @@
         <v>60138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47096</v>
+        <v>46582</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77891</v>
+        <v>76622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04572870521659114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03581164522549172</v>
+        <v>0.03542063539928131</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05922781645079186</v>
+        <v>0.05826230042857539</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -1212,19 +1212,19 @@
         <v>136371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114902</v>
+        <v>114318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160658</v>
+        <v>160679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05810842993052955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0489605411183889</v>
+        <v>0.04871158502684057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06845738413562436</v>
+        <v>0.06846633665750845</v>
       </c>
     </row>
     <row r="11">
@@ -1241,19 +1241,19 @@
         <v>380205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348261</v>
+        <v>349374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>410516</v>
+        <v>409297</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3685147844889381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3375528748493998</v>
+        <v>0.3386313208896142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3978934225819792</v>
+        <v>0.3967117825603394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -1262,19 +1262,19 @@
         <v>152469</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130841</v>
+        <v>130972</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179578</v>
+        <v>176929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1159362427424059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09949055485545515</v>
+        <v>0.09959014146794083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1365497625632239</v>
+        <v>0.1345350182010321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -1283,19 +1283,19 @@
         <v>532674</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>492263</v>
+        <v>492481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>575733</v>
+        <v>576344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2269755778454275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2097562832368984</v>
+        <v>0.2098490136651708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.245323373420768</v>
+        <v>0.2455835672699417</v>
       </c>
     </row>
     <row r="12">
@@ -1387,19 +1387,19 @@
         <v>5675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1955</v>
+        <v>1977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13686</v>
+        <v>13993</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003351288030358801</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001154335539673111</v>
+        <v>0.001167551579545798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008082169400091105</v>
+        <v>0.008263037383286896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1408,19 +1408,19 @@
         <v>9899</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5262</v>
+        <v>5022</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17656</v>
+        <v>18451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006235186626264161</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003314345241867361</v>
+        <v>0.003163095547455474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01112080813096399</v>
+        <v>0.01162128884282295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1429,19 +1429,19 @@
         <v>15575</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8893</v>
+        <v>9044</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24876</v>
+        <v>25806</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004746767646333457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002710361576190559</v>
+        <v>0.002756349202072351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007581571379912743</v>
+        <v>0.007865052310001026</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>27287</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18056</v>
+        <v>18434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38551</v>
+        <v>39147</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01611376811943951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01066252883244484</v>
+        <v>0.01088581365854973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02276544993514129</v>
+        <v>0.02311711145222524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1479,19 +1479,19 @@
         <v>10854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5633</v>
+        <v>5294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19855</v>
+        <v>18787</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006836650721958174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003547890691643544</v>
+        <v>0.003334370434501268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01250570617947689</v>
+        <v>0.0118328138886543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1500,19 +1500,19 @@
         <v>38142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27961</v>
+        <v>27274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51830</v>
+        <v>52901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01162469619382805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008521749635239571</v>
+        <v>0.008312513179262154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01579657157961154</v>
+        <v>0.01612296484115889</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>248536</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>221144</v>
+        <v>221964</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>277878</v>
+        <v>279951</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1467665277371333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1305909387720086</v>
+        <v>0.1310751662483355</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1640936913489032</v>
+        <v>0.1653173668247228</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>216</v>
@@ -1550,19 +1550,19 @@
         <v>202815</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>178632</v>
+        <v>179366</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>229857</v>
+        <v>229375</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1277437095236589</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1125118141711853</v>
+        <v>0.112974451786158</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.144776322106622</v>
+        <v>0.1444723205544703</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>475</v>
@@ -1571,19 +1571,19 @@
         <v>451352</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>415738</v>
+        <v>415986</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>490876</v>
+        <v>490344</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1375616426926364</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1267075748382781</v>
+        <v>0.1267830348543869</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1496079127761228</v>
+        <v>0.1494456895878841</v>
       </c>
     </row>
     <row r="16">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6313</v>
+        <v>5587</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001062469145855677</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.003727688435825321</v>
+        <v>0.003299131796048017</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>589</v>
@@ -1621,19 +1621,19 @@
         <v>608259</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>573009</v>
+        <v>569346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>647457</v>
+        <v>646278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3831132686230594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3609113049971423</v>
+        <v>0.3586043600279044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4078025568955411</v>
+        <v>0.4070596948378806</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>591</v>
@@ -1642,19 +1642,19 @@
         <v>610058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>567245</v>
+        <v>563530</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>656470</v>
+        <v>654422</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1859316957179103</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1728832577574891</v>
+        <v>0.1717510454543139</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2000769950227374</v>
+        <v>0.199452920489291</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>147528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124815</v>
+        <v>125055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171155</v>
+        <v>173047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08711885880630801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07370629315877196</v>
+        <v>0.07384798293357765</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1010709651048939</v>
+        <v>0.1021883367117275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1692,19 +1692,19 @@
         <v>34737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24339</v>
+        <v>24015</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47947</v>
+        <v>48193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02187933843453727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0153302551505828</v>
+        <v>0.01512617619889056</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03019945142769069</v>
+        <v>0.03035450549122727</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -1713,19 +1713,19 @@
         <v>182265</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157828</v>
+        <v>157001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210087</v>
+        <v>209757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05555033522367197</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04810241725984877</v>
+        <v>0.0478502877907297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06402973654125134</v>
+        <v>0.06392900258088624</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>6470</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2738</v>
+        <v>2898</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14549</v>
+        <v>14340</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003820458412591487</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001617119804142525</v>
+        <v>0.001711309538088813</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.008591456440927224</v>
+        <v>0.008467978987176954</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1763,19 +1763,19 @@
         <v>11824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6100</v>
+        <v>6584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19348</v>
+        <v>20748</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007447207430295917</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003842280588622459</v>
+        <v>0.004146985898518011</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01218670109401398</v>
+        <v>0.01306833129489485</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1784,19 +1784,19 @@
         <v>18293</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11396</v>
+        <v>10740</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29445</v>
+        <v>29136</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005575393323842688</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003473322958320524</v>
+        <v>0.003273304249882033</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.00897424837557617</v>
+        <v>0.008879935177877643</v>
       </c>
     </row>
     <row r="19">
@@ -1813,19 +1813,19 @@
         <v>128504</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>109149</v>
+        <v>107656</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153287</v>
+        <v>152156</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0758845506495204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06445502994315581</v>
+        <v>0.06357338385029149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09051955458395015</v>
+        <v>0.08985197332524276</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -1834,19 +1834,19 @@
         <v>123921</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102341</v>
+        <v>104110</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145316</v>
+        <v>147581</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07805219112704839</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06445965980151352</v>
+        <v>0.06557377230964824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09152781205126076</v>
+        <v>0.09295442018266746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -1855,19 +1855,19 @@
         <v>252425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>222826</v>
+        <v>222834</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>285557</v>
+        <v>284624</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07693344262701458</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06791228621190354</v>
+        <v>0.0679148328498882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08703117811493369</v>
+        <v>0.08674681820359462</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>1127613</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1087856</v>
+        <v>1085330</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1166735</v>
+        <v>1165027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6658820790987928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6424045773684552</v>
+        <v>0.6409129109278651</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6889840932277769</v>
+        <v>0.6879755010938773</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>560</v>
@@ -1905,19 +1905,19 @@
         <v>585363</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>545940</v>
+        <v>546033</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>623626</v>
+        <v>622046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3686924475131778</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3438618798741825</v>
+        <v>0.3439204526005276</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3927922087921777</v>
+        <v>0.3917973783411228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1640</v>
@@ -1926,19 +1926,19 @@
         <v>1712976</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1654493</v>
+        <v>1660584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1769211</v>
+        <v>1775210</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5220760265747626</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5042515241018299</v>
+        <v>0.5061079591595403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5392150487762329</v>
+        <v>0.5410434343339757</v>
       </c>
     </row>
     <row r="21">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6977</v>
+        <v>6830</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00350313305221362</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01265263951886292</v>
+        <v>0.01238631487353216</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2051,19 +2051,19 @@
         <v>9718</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4103</v>
+        <v>4557</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19204</v>
+        <v>19243</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02039772585366454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008612576036906747</v>
+        <v>0.009565005410996053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04030894180229667</v>
+        <v>0.04039186789108578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2072,19 +2072,19 @@
         <v>11649</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5607</v>
+        <v>5922</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21080</v>
+        <v>20662</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01133406060407275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005455587828844235</v>
+        <v>0.005762057519228571</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02050944453429888</v>
+        <v>0.02010276688749421</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>7413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3264</v>
+        <v>3214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15446</v>
+        <v>16206</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01344426377831845</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005919317655603069</v>
+        <v>0.005828528718662513</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02801207690048856</v>
+        <v>0.02938968557675945</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7798</v>
+        <v>6068</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004178421042659766</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01636746184397625</v>
+        <v>0.01273653494237101</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2143,19 +2143,19 @@
         <v>9404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4653</v>
+        <v>4243</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17950</v>
+        <v>18165</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00914939002654434</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00452721010728559</v>
+        <v>0.004128587402787472</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01746401648186191</v>
+        <v>0.01767300701375925</v>
       </c>
     </row>
     <row r="24">
@@ -2172,19 +2172,19 @@
         <v>44329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32384</v>
+        <v>32105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57596</v>
+        <v>56901</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08039246633741595</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05872985258301096</v>
+        <v>0.05822346777799772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1044518940162303</v>
+        <v>0.1031920731922483</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2193,19 +2193,19 @@
         <v>39902</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29527</v>
+        <v>28056</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53119</v>
+        <v>53702</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08375509111754809</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06197718425433926</v>
+        <v>0.05889107222091531</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1114985189034222</v>
+        <v>0.1127209887783674</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -2214,19 +2214,19 @@
         <v>84231</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>67830</v>
+        <v>67616</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100743</v>
+        <v>103169</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08195109940698833</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06599451395650392</v>
+        <v>0.06578581337691707</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09801597611429901</v>
+        <v>0.1003766869036905</v>
       </c>
     </row>
     <row r="25">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11074</v>
+        <v>12903</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006658320683492598</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02008258000381064</v>
+        <v>0.02340066643371867</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2267,16 +2267,16 @@
         <v>55183</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87170</v>
+        <v>87928</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1466543037825215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1158302177195171</v>
+        <v>0.1158313317189122</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1829728419494202</v>
+        <v>0.1845632555359439</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -2285,19 +2285,19 @@
         <v>73539</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56658</v>
+        <v>58190</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92574</v>
+        <v>92842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07154881044455036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05512468690731009</v>
+        <v>0.05661530300133327</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09006804141052216</v>
+        <v>0.09032893765540156</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>58624</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43999</v>
+        <v>44561</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76026</v>
+        <v>77045</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1063161029360944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07979393316586504</v>
+        <v>0.0808139708523348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1378754762457571</v>
+        <v>0.139723243107187</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -2335,19 +2335,19 @@
         <v>30685</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21256</v>
+        <v>21732</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41860</v>
+        <v>43401</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06440869309976772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04461680301505253</v>
+        <v>0.04561548631837428</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08786450164425055</v>
+        <v>0.0911006657535877</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -2356,19 +2356,19 @@
         <v>89309</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>71975</v>
+        <v>70962</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109230</v>
+        <v>109529</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08689131453360867</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07002671266790761</v>
+        <v>0.06904078681261383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1062737808068702</v>
+        <v>0.1065647720962879</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>9348</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4806</v>
+        <v>4314</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17706</v>
+        <v>17013</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01695365245669612</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008715390668811364</v>
+        <v>0.007822934463527852</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03210975394611124</v>
+        <v>0.03085409107742062</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2406,19 +2406,19 @@
         <v>6240</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2167</v>
+        <v>2144</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13770</v>
+        <v>12639</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01309885932865166</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004548302838418691</v>
+        <v>0.004499916093208762</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02890405557710271</v>
+        <v>0.02652978567484237</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -2427,19 +2427,19 @@
         <v>15589</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>8761</v>
+        <v>9074</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>25265</v>
+        <v>24881</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0151668910906259</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.008523669470651385</v>
+        <v>0.008828179620043815</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02458103466676638</v>
+        <v>0.02420774333415542</v>
       </c>
     </row>
     <row r="28">
@@ -2456,19 +2456,19 @@
         <v>20781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13381</v>
+        <v>12844</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30867</v>
+        <v>30788</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03768648779548361</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02426744489969044</v>
+        <v>0.02329351964852594</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05597760653405214</v>
+        <v>0.05583599701762169</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2477,19 +2477,19 @@
         <v>26650</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17834</v>
+        <v>17974</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38181</v>
+        <v>38802</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05593960082649541</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03743435376280621</v>
+        <v>0.0377269080835422</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0801427363174603</v>
+        <v>0.08144610738263416</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -2498,19 +2498,19 @@
         <v>47431</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>35712</v>
+        <v>35485</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>63444</v>
+        <v>63687</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0461471122936055</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03474520688342681</v>
+        <v>0.03452436718864287</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.061727029244234</v>
+        <v>0.06196329363290789</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>405310</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>383339</v>
+        <v>384653</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>425637</v>
+        <v>426994</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7350455729602853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6952005930600649</v>
+        <v>0.6975827582778527</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7719094804679507</v>
+        <v>0.7743706429213778</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>279</v>
@@ -2548,19 +2548,19 @@
         <v>291358</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>268245</v>
+        <v>265990</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>311140</v>
+        <v>310721</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6115673049486913</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5630524035824976</v>
+        <v>0.5583190149258657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6530897642230529</v>
+        <v>0.6522106391036687</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>668</v>
@@ -2569,19 +2569,19 @@
         <v>696668</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>666097</v>
+        <v>665036</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>725976</v>
+        <v>725262</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6778113216000041</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6480677397824457</v>
+        <v>0.6470356923634699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7063262157075939</v>
+        <v>0.7056316154403692</v>
       </c>
     </row>
     <row r="30">
@@ -2673,19 +2673,19 @@
         <v>27683</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18423</v>
+        <v>18111</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40521</v>
+        <v>42629</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.008448980490548222</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005622708429963627</v>
+        <v>0.005527624150705629</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01236691484159215</v>
+        <v>0.01301046230236684</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>97</v>
@@ -2694,19 +2694,19 @@
         <v>100441</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>82720</v>
+        <v>81908</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>120720</v>
+        <v>121462</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02972339504721397</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02447912738079664</v>
+        <v>0.02423896113332548</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03572438243832161</v>
+        <v>0.03594411432726637</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>123</v>
@@ -2715,19 +2715,19 @@
         <v>128125</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>105073</v>
+        <v>106917</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>152604</v>
+        <v>150368</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01925024941138952</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01578678316727562</v>
+        <v>0.01606389754314423</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0229281493856034</v>
+        <v>0.02259224595403092</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>70234</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54737</v>
+        <v>54302</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88251</v>
+        <v>87314</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0214353705907883</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01670574385966684</v>
+        <v>0.01657291449112932</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02693410151955624</v>
+        <v>0.02664821901356436</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2765,19 +2765,19 @@
         <v>38756</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27870</v>
+        <v>27309</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52836</v>
+        <v>52321</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01146910456088199</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008247445928663671</v>
+        <v>0.008081510330646795</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01563561479510622</v>
+        <v>0.01548330326315334</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -2786,19 +2786,19 @@
         <v>108990</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90165</v>
+        <v>88290</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>130841</v>
+        <v>130493</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01637538084399949</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01354689038625569</v>
+        <v>0.01326529818928631</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01965842547283384</v>
+        <v>0.01960609864946605</v>
       </c>
     </row>
     <row r="33">
@@ -2815,19 +2815,19 @@
         <v>320122</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>286919</v>
+        <v>286341</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>356556</v>
+        <v>352598</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09770117694597664</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08756769466220127</v>
+        <v>0.08739119826462625</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1088206838243067</v>
+        <v>0.1076129413813506</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>282</v>
@@ -2836,19 +2836,19 @@
         <v>266664</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>237964</v>
+        <v>237498</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>295641</v>
+        <v>294299</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07891333538492881</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07042017742248116</v>
+        <v>0.07028246949960783</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08748857027149637</v>
+        <v>0.08709148257669515</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>614</v>
@@ -2857,19 +2857,19 @@
         <v>586786</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>543039</v>
+        <v>540153</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>631381</v>
+        <v>630407</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0881623701974989</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08158961073421626</v>
+        <v>0.08115595591654549</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09486268352136962</v>
+        <v>0.0947162090315832</v>
       </c>
     </row>
     <row r="34">
@@ -2886,19 +2886,19 @@
         <v>11700</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5498</v>
+        <v>5303</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21946</v>
+        <v>22503</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003570763482528197</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001678014464939893</v>
+        <v>0.001618362521906953</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.006697927118032593</v>
+        <v>0.006867995995511468</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1454</v>
@@ -2907,19 +2907,19 @@
         <v>1493111</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1439616</v>
+        <v>1432051</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1552589</v>
+        <v>1550384</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4418538689467637</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.426022991437884</v>
+        <v>0.4237844959328529</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4594548989984931</v>
+        <v>0.4588024965351357</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1464</v>
@@ -2928,19 +2928,19 @@
         <v>1504811</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1436987</v>
+        <v>1442417</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1575489</v>
+        <v>1580305</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2260922186779842</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.215901938936882</v>
+        <v>0.2167176764515544</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2367113025777964</v>
+        <v>0.2374348878053862</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>687041</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>643170</v>
+        <v>643589</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>730733</v>
+        <v>736835</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2096847780053809</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1962953093597272</v>
+        <v>0.1964232169376828</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2230195328314709</v>
+        <v>0.2248819724600805</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>213</v>
@@ -2978,19 +2978,19 @@
         <v>216490</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>189776</v>
+        <v>190601</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>245961</v>
+        <v>245738</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0640654799016913</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05615994889956039</v>
+        <v>0.05640411435149489</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07278695806764957</v>
+        <v>0.07272094471449418</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>921</v>
@@ -2999,19 +2999,19 @@
         <v>903531</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>845336</v>
+        <v>852690</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>959670</v>
+        <v>964603</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1357521583935622</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.127008486456132</v>
+        <v>0.12811345031082</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1441868364972967</v>
+        <v>0.1449279323430953</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>21118</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12327</v>
+        <v>12748</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32904</v>
+        <v>33375</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006445095778527489</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003762246243980691</v>
+        <v>0.003890728661187969</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01004240569588363</v>
+        <v>0.01018602876061951</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>24</v>
@@ -3049,19 +3049,19 @@
         <v>23835</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14815</v>
+        <v>15940</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>35112</v>
+        <v>34637</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007053331991682082</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.004384162190056766</v>
+        <v>0.004717165994870076</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01039070172030752</v>
+        <v>0.01025018921313679</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>44</v>
@@ -3070,19 +3070,19 @@
         <v>44952</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>33725</v>
+        <v>33029</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>61058</v>
+        <v>60094</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006753904412869836</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005066991014629306</v>
+        <v>0.004962476777356719</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.00917366403720791</v>
+        <v>0.00902887974918524</v>
       </c>
     </row>
     <row r="37">
@@ -3099,19 +3099,19 @@
         <v>225517</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>198016</v>
+        <v>196078</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>255870</v>
+        <v>259458</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06882771981252025</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06043430068490317</v>
+        <v>0.05984296877310099</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07809149999477794</v>
+        <v>0.07918643692514679</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>205</v>
@@ -3120,19 +3120,19 @@
         <v>210710</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>183486</v>
+        <v>185835</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>240610</v>
+        <v>241310</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06235505520729859</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05429873189568266</v>
+        <v>0.05499373670247527</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07120318860822669</v>
+        <v>0.07141054170393266</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>423</v>
@@ -3141,19 +3141,19 @@
         <v>436227</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>396842</v>
+        <v>395526</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>478564</v>
+        <v>479772</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06554147234144685</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05962405106632862</v>
+        <v>0.05942625764881474</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07190240292519616</v>
+        <v>0.0720839446292641</v>
       </c>
     </row>
     <row r="38">
@@ -3170,19 +3170,19 @@
         <v>1913128</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1859955</v>
+        <v>1859901</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1971147</v>
+        <v>1968428</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.58388611489373</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5676577683005335</v>
+        <v>0.5676412329679279</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6015936254169909</v>
+        <v>0.6007636915925607</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>985</v>
@@ -3191,19 +3191,19 @@
         <v>1029190</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>972426</v>
+        <v>977800</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1080992</v>
+        <v>1085720</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3045664289595396</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2877682203939392</v>
+        <v>0.289358788716108</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3198960230126064</v>
+        <v>0.3212952690372099</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2817</v>
@@ -3212,19 +3212,19 @@
         <v>2942318</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2857582</v>
+        <v>2858590</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3022385</v>
+        <v>3023794</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.442072245721249</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4293409332188417</v>
+        <v>0.4294923872722677</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4541019350645413</v>
+        <v>0.4543136222598212</v>
       </c>
     </row>
     <row r="39">
@@ -3555,19 +3555,19 @@
         <v>4959</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13864</v>
+        <v>13999</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005093215294497677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00102494253478152</v>
+        <v>0.001033160322882472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0142396100084876</v>
+        <v>0.01437812501530889</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3576,19 +3576,19 @@
         <v>6355</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2230</v>
+        <v>3083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13711</v>
+        <v>14435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004750495988489474</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001667081108398285</v>
+        <v>0.002304344125591487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01024928199010742</v>
+        <v>0.01079017162507697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -3597,19 +3597,19 @@
         <v>11314</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5173</v>
+        <v>5144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20899</v>
+        <v>21485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004894857015345568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00223821430446212</v>
+        <v>0.002225663066365248</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009041740861175682</v>
+        <v>0.009295319885933767</v>
       </c>
     </row>
     <row r="5">
@@ -3626,19 +3626,19 @@
         <v>44409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32253</v>
+        <v>32727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60458</v>
+        <v>60446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04561247508689568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03312685773134778</v>
+        <v>0.03361381004060798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06209574466498354</v>
+        <v>0.06208396024404775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -3647,19 +3647,19 @@
         <v>30584</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20855</v>
+        <v>20193</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43888</v>
+        <v>43130</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02286182122112883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01558897816269223</v>
+        <v>0.01509445150021716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03280592850949617</v>
+        <v>0.03223991608600609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -3668,19 +3668,19 @@
         <v>74994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58789</v>
+        <v>58310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94762</v>
+        <v>94009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03244490480040946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02543410829637072</v>
+        <v>0.025226876151034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04099752669522519</v>
+        <v>0.0406717460529509</v>
       </c>
     </row>
     <row r="6">
@@ -3697,19 +3697,19 @@
         <v>9789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4925</v>
+        <v>4772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17478</v>
+        <v>17587</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01005463208953675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005058604523125319</v>
+        <v>0.004901101282291966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01795186275417341</v>
+        <v>0.01806369984628352</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3718,19 +3718,19 @@
         <v>7089</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3021</v>
+        <v>3084</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14245</v>
+        <v>14549</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005298768903574797</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002258447850268211</v>
+        <v>0.002305074866913714</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01064835228508559</v>
+        <v>0.01087564536432353</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -3739,19 +3739,19 @@
         <v>16878</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10012</v>
+        <v>9939</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26940</v>
+        <v>27306</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007302044707057336</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004331536863435398</v>
+        <v>0.00430009645213815</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01165540410395545</v>
+        <v>0.01181353103612952</v>
       </c>
     </row>
     <row r="7">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13534</v>
+        <v>13027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003594637111927426</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01390099362460641</v>
+        <v>0.01337989044872351</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>697</v>
@@ -3789,19 +3789,19 @@
         <v>749905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>713458</v>
+        <v>711255</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>785586</v>
+        <v>787578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5605522544396523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5333084797399499</v>
+        <v>0.5316613183532256</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5872232914252457</v>
+        <v>0.5887125794014123</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>699</v>
@@ -3810,19 +3810,19 @@
         <v>753405</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>707481</v>
+        <v>707440</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>805620</v>
+        <v>796960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3259492655119459</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3060810710999198</v>
+        <v>0.3060632645051254</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3485395395181926</v>
+        <v>0.3447929403294352</v>
       </c>
     </row>
     <row r="8">
@@ -3839,19 +3839,19 @@
         <v>478848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>446980</v>
+        <v>446467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>510447</v>
+        <v>510080</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4918221076717446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4590912569309453</v>
+        <v>0.4585640255082524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5242770230641753</v>
+        <v>0.5239007124104339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>237</v>
@@ -3860,19 +3860,19 @@
         <v>251474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>222448</v>
+        <v>225254</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>282115</v>
+        <v>280069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1879762129083166</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1662789694080866</v>
+        <v>0.1683764466041916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2108801974914944</v>
+        <v>0.2093508859426848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>676</v>
@@ -3881,19 +3881,19 @@
         <v>730322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>684558</v>
+        <v>682540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>773176</v>
+        <v>776091</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3159628906503846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2961638078195161</v>
+        <v>0.2952905852602387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3345030557869872</v>
+        <v>0.3357641432647687</v>
       </c>
     </row>
     <row r="9">
@@ -3910,19 +3910,19 @@
         <v>4202</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10318</v>
+        <v>9764</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004316244871715304</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001031343980642263</v>
+        <v>0.001011311069708775</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01059798799020526</v>
+        <v>0.01002850977833046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3931,19 +3931,19 @@
         <v>8149</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3868</v>
+        <v>3950</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16063</v>
+        <v>15155</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006091357953418885</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002890990851233476</v>
+        <v>0.002952815190367931</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01200728772902522</v>
+        <v>0.01132810698059258</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -3952,19 +3952,19 @@
         <v>12351</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6862</v>
+        <v>6413</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21335</v>
+        <v>21186</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005343640673510877</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002968783427256581</v>
+        <v>0.002774607370198624</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009230320548972316</v>
+        <v>0.009165898932048666</v>
       </c>
     </row>
     <row r="10">
@@ -3981,19 +3981,19 @@
         <v>242908</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214742</v>
+        <v>216634</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270325</v>
+        <v>271575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2494898609451372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2205607255465137</v>
+        <v>0.2225039212130324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2776492954138896</v>
+        <v>0.2789337363451773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>134</v>
@@ -4002,19 +4002,19 @@
         <v>144263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121037</v>
+        <v>120978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167628</v>
+        <v>167708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1078362307159231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0904748989013965</v>
+        <v>0.09043055994464258</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1253014981166521</v>
+        <v>0.1253614683049577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>366</v>
@@ -4023,19 +4023,19 @@
         <v>387171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>352146</v>
+        <v>351699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427402</v>
+        <v>426037</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1675039038212523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1523508952629848</v>
+        <v>0.1521573780497519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1849088755570099</v>
+        <v>0.1843186577602902</v>
       </c>
     </row>
     <row r="11">
@@ -4052,19 +4052,19 @@
         <v>185004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160939</v>
+        <v>161564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212112</v>
+        <v>210302</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1900168269285453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1653000475124627</v>
+        <v>0.1659414565166169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.217858829037512</v>
+        <v>0.2159998577280135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -4073,19 +4073,19 @@
         <v>139978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119898</v>
+        <v>120428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165915</v>
+        <v>164969</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1046328578694961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08962353966117984</v>
+        <v>0.09001951957615337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.124021248606411</v>
+        <v>0.123313562047838</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>307</v>
@@ -4094,19 +4094,19 @@
         <v>324982</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>291003</v>
+        <v>289448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>357282</v>
+        <v>359182</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.140598492820094</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1258982949413562</v>
+        <v>0.1252255625341562</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1545727264282473</v>
+        <v>0.1553948922877456</v>
       </c>
     </row>
     <row r="12">
@@ -4198,19 +4198,19 @@
         <v>5348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1070</v>
+        <v>1849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14934</v>
+        <v>15707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002722995386598697</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0005449008767282035</v>
+        <v>0.0009412222792088636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007603868383092228</v>
+        <v>0.007997739317523778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6531</v>
+        <v>7386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001194244250720798</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.003719761123302817</v>
+        <v>0.004206911275888704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4240,19 +4240,19 @@
         <v>7445</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3009</v>
+        <v>2929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15645</v>
+        <v>16705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002001424376669947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0008089743821530245</v>
+        <v>0.000787414861041921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00420603512080502</v>
+        <v>0.004490960064123353</v>
       </c>
     </row>
     <row r="14">
@@ -4269,19 +4269,19 @@
         <v>62702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47482</v>
+        <v>47586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82155</v>
+        <v>80235</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03192641230120706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02417659369175305</v>
+        <v>0.02422959631453795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04183131115033208</v>
+        <v>0.04085350496409368</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -4290,19 +4290,19 @@
         <v>31071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20855</v>
+        <v>20360</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44703</v>
+        <v>45764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01769766327843796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01187889178941633</v>
+        <v>0.01159697776091768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02546203693567619</v>
+        <v>0.0260664436963023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -4311,19 +4311,19 @@
         <v>93773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73816</v>
+        <v>74750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114689</v>
+        <v>117089</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02521043835265051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01984511807499207</v>
+        <v>0.02009602208838633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03083348129040847</v>
+        <v>0.03147872132812169</v>
       </c>
     </row>
     <row r="15">
@@ -4340,19 +4340,19 @@
         <v>242886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>215517</v>
+        <v>213854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>272660</v>
+        <v>270791</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.123671907073198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1097358622550205</v>
+        <v>0.1088895152729422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1388317312820147</v>
+        <v>0.1378803476902157</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>189</v>
@@ -4361,19 +4361,19 @@
         <v>193530</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>170205</v>
+        <v>170558</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>222371</v>
+        <v>222738</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1102317213741227</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09694621351394135</v>
+        <v>0.09714735415309131</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1266596457066171</v>
+        <v>0.1268683832293048</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>430</v>
@@ -4382,19 +4382,19 @@
         <v>436416</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>398335</v>
+        <v>395013</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>480089</v>
+        <v>473712</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1173281352578184</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1070902451644005</v>
+        <v>0.106197148064823</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1290695626363923</v>
+        <v>0.1273551158644369</v>
       </c>
     </row>
     <row r="16">
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5334</v>
+        <v>4688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0004771044269181371</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.002715810231779882</v>
+        <v>0.002387185254648721</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>430</v>
@@ -4432,19 +4432,19 @@
         <v>467652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>432541</v>
+        <v>429022</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>509540</v>
+        <v>504668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2663678530599344</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2463690749601287</v>
+        <v>0.244364717430332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2902269185594524</v>
+        <v>0.2874516448322483</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>431</v>
@@ -4453,19 +4453,19 @@
         <v>468589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426026</v>
+        <v>426837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>510771</v>
+        <v>509544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1259776201872287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1145347612046362</v>
+        <v>0.1147530003670308</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1373181038608561</v>
+        <v>0.1369882697725294</v>
       </c>
     </row>
     <row r="17">
@@ -4482,19 +4482,19 @@
         <v>177087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150808</v>
+        <v>153626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203868</v>
+        <v>206796</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09016853110616536</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07678796234390718</v>
+        <v>0.07822289324878054</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1038049615286839</v>
+        <v>0.1052955123638341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -4503,19 +4503,19 @@
         <v>53716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38894</v>
+        <v>39997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71347</v>
+        <v>70988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03059583724336912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02215335355383322</v>
+        <v>0.02278165666281183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04063824620688773</v>
+        <v>0.0404336653281275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -4524,19 +4524,19 @@
         <v>230803</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>200936</v>
+        <v>197027</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>264591</v>
+        <v>262778</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06205020114000703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05402068250480872</v>
+        <v>0.05296964576217405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07113382635683389</v>
+        <v>0.07064642832537479</v>
       </c>
     </row>
     <row r="18">
@@ -4553,19 +4553,19 @@
         <v>11053</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5078</v>
+        <v>5540</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21496</v>
+        <v>20140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005627854779959041</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002585844178602486</v>
+        <v>0.0028206992413694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01094509850333422</v>
+        <v>0.01025504969543537</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -4574,19 +4574,19 @@
         <v>27152</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17591</v>
+        <v>18453</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37895</v>
+        <v>39668</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0154651792932875</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01001937495614924</v>
+        <v>0.01051061549459043</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02158450090062696</v>
+        <v>0.02259433526815328</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>37</v>
@@ -4595,19 +4595,19 @@
         <v>38204</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26879</v>
+        <v>27842</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>53128</v>
+        <v>52953</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01027107499905833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007226388133254776</v>
+        <v>0.007485167434721413</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0142831498092753</v>
+        <v>0.01423617906894476</v>
       </c>
     </row>
     <row r="19">
@@ -4624,19 +4624,19 @@
         <v>543259</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>502885</v>
+        <v>504817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>584842</v>
+        <v>587243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2766143471049732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2560570907140126</v>
+        <v>0.2570407800635635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2977874906501183</v>
+        <v>0.2990099605665096</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>373</v>
@@ -4645,19 +4645,19 @@
         <v>402584</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>367390</v>
+        <v>367096</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>437114</v>
+        <v>440461</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2293064104047559</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.209260017822629</v>
+        <v>0.2090928628340599</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2489738520327559</v>
+        <v>0.250880624363528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>886</v>
@@ -4666,19 +4666,19 @@
         <v>945843</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>893248</v>
+        <v>891942</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1003538</v>
+        <v>1002327</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2542849863206764</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2401450452336894</v>
+        <v>0.2397940474098425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2697960671011801</v>
+        <v>0.2694703245930863</v>
       </c>
     </row>
     <row r="20">
@@ -4695,19 +4695,19 @@
         <v>920685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>875654</v>
+        <v>877006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>966653</v>
+        <v>966128</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4687908478209805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4458620535700838</v>
+        <v>0.4465506722302334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4921968753059566</v>
+        <v>0.4919294554268111</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>539</v>
@@ -4716,19 +4716,19 @@
         <v>577860</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>535694</v>
+        <v>537561</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>616633</v>
+        <v>616799</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3291410910953716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.305123825441993</v>
+        <v>0.3061874934821937</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3512255786421372</v>
+        <v>0.3513201656367277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1411</v>
@@ -4737,19 +4737,19 @@
         <v>1498545</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1438035</v>
+        <v>1439644</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1564197</v>
+        <v>1566396</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4028761193658907</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.386608287330975</v>
+        <v>0.3870407516141334</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4205262227116376</v>
+        <v>0.4211175025016239</v>
       </c>
     </row>
     <row r="21">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5351</v>
+        <v>5388</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002326702911141524</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0116672322566967</v>
+        <v>0.01174828550912984</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5379</v>
+        <v>4881</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00113543739629784</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005723586639476825</v>
+        <v>0.00519359098266674</v>
       </c>
     </row>
     <row r="23">
@@ -4904,19 +4904,19 @@
         <v>6449</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2156</v>
+        <v>2185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15464</v>
+        <v>16293</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0134017632067417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004480813889841327</v>
+        <v>0.004540823535731408</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03213731239553078</v>
+        <v>0.03386090276597113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -4925,19 +4925,19 @@
         <v>3937</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10291</v>
+        <v>9025</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008583261485099318</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002139193199115008</v>
+        <v>0.002135945813018413</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02243750144315709</v>
+        <v>0.01967715355520781</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -4946,19 +4946,19 @@
         <v>10385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5145</v>
+        <v>5000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20769</v>
+        <v>19802</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01105032116286079</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005474569715827211</v>
+        <v>0.005320013361734557</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02209864556484759</v>
+        <v>0.02107020352186359</v>
       </c>
     </row>
     <row r="24">
@@ -4975,19 +4975,19 @@
         <v>39103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28726</v>
+        <v>28232</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52330</v>
+        <v>50837</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08126505658712765</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05969899044732996</v>
+        <v>0.05867313724619092</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1087536113885168</v>
+        <v>0.1056509465069144</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -4996,19 +4996,19 @@
         <v>41839</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30843</v>
+        <v>30173</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56607</v>
+        <v>56038</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09122621755587139</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06725056986828946</v>
+        <v>0.06578938654700033</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1234270376271105</v>
+        <v>0.1221847122613197</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>80</v>
@@ -5017,19 +5017,19 @@
         <v>80942</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63491</v>
+        <v>65592</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100857</v>
+        <v>100374</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08612613043557402</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06755707665856625</v>
+        <v>0.0697927043835984</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1073164487448275</v>
+        <v>0.106802101586113</v>
       </c>
     </row>
     <row r="25">
@@ -5059,19 +5059,19 @@
         <v>53822</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40244</v>
+        <v>40620</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70650</v>
+        <v>69612</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1173542245249932</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08774919126273177</v>
+        <v>0.08856852918707486</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1540458916485213</v>
+        <v>0.1517828811454237</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -5080,19 +5080,19 @@
         <v>53822</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40293</v>
+        <v>40439</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70494</v>
+        <v>71329</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05726918314372863</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04287327581464192</v>
+        <v>0.04302887065096119</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07500825681989681</v>
+        <v>0.07589704956934241</v>
       </c>
     </row>
     <row r="26">
@@ -5109,19 +5109,19 @@
         <v>39657</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28234</v>
+        <v>28358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55248</v>
+        <v>55202</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08241695481253691</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05867634911880681</v>
+        <v>0.05893476124944878</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.114818355999463</v>
+        <v>0.1147221894548389</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -5130,19 +5130,19 @@
         <v>24437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15171</v>
+        <v>15209</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37345</v>
+        <v>37815</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05328209217671807</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03307829042161814</v>
+        <v>0.03316168773287011</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08142635407687665</v>
+        <v>0.08245249299167845</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -5151,19 +5151,19 @@
         <v>64094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>49747</v>
+        <v>47830</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83390</v>
+        <v>81753</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06819906201053783</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05293332912547394</v>
+        <v>0.05089322677206137</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08873002340773362</v>
+        <v>0.08698842236517761</v>
       </c>
     </row>
     <row r="27">
@@ -5180,19 +5180,19 @@
         <v>7687</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3790</v>
+        <v>3696</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14700</v>
+        <v>15070</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01597614407245404</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.007877217109233621</v>
+        <v>0.00768142927023502</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03054942604947582</v>
+        <v>0.03131960402620928</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -5201,19 +5201,19 @@
         <v>10601</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4953</v>
+        <v>4898</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>18473</v>
+        <v>20664</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02311521384974445</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01079963336970307</v>
+        <v>0.01067952949569411</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04027877086045013</v>
+        <v>0.04505518580580086</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>17</v>
@@ -5222,19 +5222,19 @@
         <v>18289</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11402</v>
+        <v>11430</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>29678</v>
+        <v>29342</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01946002968634116</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01213271511734213</v>
+        <v>0.01216233720313279</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03157864369572225</v>
+        <v>0.03122082752606891</v>
       </c>
     </row>
     <row r="28">
@@ -5251,19 +5251,19 @@
         <v>69942</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53391</v>
+        <v>55735</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88134</v>
+        <v>88624</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1453542308871743</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1109573276035643</v>
+        <v>0.1158295336513599</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1831623724212118</v>
+        <v>0.1841791971381267</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -5272,19 +5272,19 @@
         <v>87012</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>70450</v>
+        <v>70503</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>106108</v>
+        <v>103374</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1897203574064165</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1536097277775266</v>
+        <v>0.1537238171877307</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2313590025269745</v>
+        <v>0.2253958904737056</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>144</v>
@@ -5293,19 +5293,19 @@
         <v>156953</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>135674</v>
+        <v>134549</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>181868</v>
+        <v>181252</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1670050222011861</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1443625078728425</v>
+        <v>0.1431656430109692</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1935147192909327</v>
+        <v>0.1928592121190661</v>
       </c>
     </row>
     <row r="29">
@@ -5322,19 +5322,19 @@
         <v>318343</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>296238</v>
+        <v>295325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>339611</v>
+        <v>337671</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6615858504339655</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6156477832999824</v>
+        <v>0.6137513193873038</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7057872750493447</v>
+        <v>0.7017554478207915</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>211</v>
@@ -5343,19 +5343,19 @@
         <v>235916</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>213974</v>
+        <v>212797</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>256406</v>
+        <v>259000</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5143919300900155</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4665496572161382</v>
+        <v>0.4639824641544004</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5590673887997093</v>
+        <v>0.5647235732892202</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>498</v>
@@ -5364,19 +5364,19 @@
         <v>554259</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>523656</v>
+        <v>518382</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>585919</v>
+        <v>584958</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5897548139634736</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5571919478846385</v>
+        <v>0.5515804334898129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6234423235042785</v>
+        <v>0.6224197859456188</v>
       </c>
     </row>
     <row r="30">
@@ -5468,19 +5468,19 @@
         <v>10307</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4863</v>
+        <v>4003</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24242</v>
+        <v>21636</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003014750295609046</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001422567768255547</v>
+        <v>0.001170767272493869</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.007090970226619393</v>
+        <v>0.006328512516378538</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -5489,19 +5489,19 @@
         <v>9519</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4272</v>
+        <v>4206</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16952</v>
+        <v>17190</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002679827092948688</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001202799723941013</v>
+        <v>0.001184204730831167</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004772287184175088</v>
+        <v>0.004839343515330433</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>16</v>
@@ -5510,19 +5510,19 @@
         <v>19826</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11521</v>
+        <v>12135</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31335</v>
+        <v>33868</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002844085704856547</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001652767286335876</v>
+        <v>0.001740792806721722</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.004495125739765129</v>
+        <v>0.004858584447346074</v>
       </c>
     </row>
     <row r="32">
@@ -5539,19 +5539,19 @@
         <v>113560</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92278</v>
+        <v>94061</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>136162</v>
+        <v>138370</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03321673822172649</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02699159369984373</v>
+        <v>0.02751315592572643</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03982797640758802</v>
+        <v>0.04047387539239035</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -5560,19 +5560,19 @@
         <v>65592</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47996</v>
+        <v>50808</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>84793</v>
+        <v>85665</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01846578729976533</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.013512012636996</v>
+        <v>0.01430375059874016</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02387139051844801</v>
+        <v>0.02411692605527126</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>159</v>
@@ -5581,19 +5581,19 @@
         <v>179152</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>151414</v>
+        <v>155121</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>207348</v>
+        <v>209040</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02570019418324244</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0217210524272992</v>
+        <v>0.02225283154391057</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02974508653027284</v>
+        <v>0.02998768964743548</v>
       </c>
     </row>
     <row r="33">
@@ -5610,19 +5610,19 @@
         <v>291779</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>257970</v>
+        <v>263163</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>324162</v>
+        <v>326063</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08534645540524172</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07545718230268549</v>
+        <v>0.07697615920482107</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09481850523140163</v>
+        <v>0.09537453473683306</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>235</v>
@@ -5631,19 +5631,19 @@
         <v>242457</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>213581</v>
+        <v>211188</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>274601</v>
+        <v>271722</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06825769748648589</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06012814499199454</v>
+        <v>0.05945466655458584</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07730678460748193</v>
+        <v>0.07649627622795069</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>527</v>
@@ -5652,19 +5652,19 @@
         <v>534236</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>490113</v>
+        <v>491345</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>578923</v>
+        <v>579855</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07663865059056447</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07030888159086367</v>
+        <v>0.07048561923274309</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0830492161174648</v>
+        <v>0.083182883928953</v>
       </c>
     </row>
     <row r="34">
@@ -5681,19 +5681,19 @@
         <v>4437</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14270</v>
+        <v>12881</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00129778807691228</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0002741745879575325</v>
+        <v>0.0002742394800076976</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.004174156532228976</v>
+        <v>0.003767595551875968</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1175</v>
@@ -5702,19 +5702,19 @@
         <v>1271379</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1210870</v>
+        <v>1207041</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1327718</v>
+        <v>1324285</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3579242922481156</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3408896227925287</v>
+        <v>0.3398116680682716</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3737850164739187</v>
+        <v>0.3728185784316959</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1178</v>
@@ -5723,19 +5723,19 @@
         <v>1275816</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1211056</v>
+        <v>1208477</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1353380</v>
+        <v>1342250</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1830215859578067</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1737314755300573</v>
+        <v>0.1733615628221009</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1941484959430095</v>
+        <v>0.1925519066723331</v>
       </c>
     </row>
     <row r="35">
@@ -5752,19 +5752,19 @@
         <v>695593</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>644393</v>
+        <v>649157</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>744786</v>
+        <v>745138</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.203463500807621</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1884874713816805</v>
+        <v>0.1898810308246465</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.217852701483473</v>
+        <v>0.2179556166399927</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>304</v>
@@ -5773,19 +5773,19 @@
         <v>329627</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>295719</v>
+        <v>297421</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>367120</v>
+        <v>365326</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09279798447036416</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08325223196416932</v>
+        <v>0.08373135578181325</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1033531718747849</v>
+        <v>0.1028482055494702</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>935</v>
@@ -5794,19 +5794,19 @@
         <v>1025219</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>963407</v>
+        <v>966225</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1085462</v>
+        <v>1091843</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1470724090406385</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1382051325052822</v>
+        <v>0.1386093841294362</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1557145228478671</v>
+        <v>0.1566298771940477</v>
       </c>
     </row>
     <row r="36">
@@ -5823,19 +5823,19 @@
         <v>22943</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14084</v>
+        <v>15369</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34177</v>
+        <v>33853</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006710819121539122</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.004119547777146625</v>
+        <v>0.004495621451681081</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009996759540431763</v>
+        <v>0.009902189254718159</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>44</v>
@@ -5844,19 +5844,19 @@
         <v>45902</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33820</v>
+        <v>35032</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>61006</v>
+        <v>63255</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01292252822345184</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009521165250832931</v>
+        <v>0.009862472130602953</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0171745584167542</v>
+        <v>0.0178079042607448</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>66</v>
@@ -5865,19 +5865,19 @@
         <v>68845</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>51437</v>
+        <v>54131</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>85830</v>
+        <v>89259</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009876078450635413</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.007378806740221026</v>
+        <v>0.007765362855314453</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01231272513529423</v>
+        <v>0.01280458142227367</v>
       </c>
     </row>
     <row r="37">
@@ -5894,19 +5894,19 @@
         <v>856109</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>804487</v>
+        <v>805505</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>905925</v>
+        <v>909354</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2504151098630297</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2353154784785655</v>
+        <v>0.2356132028029407</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2649865137907653</v>
+        <v>0.2659893660787647</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>587</v>
@@ -5915,19 +5915,19 @@
         <v>633859</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>585448</v>
+        <v>587742</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>681015</v>
+        <v>678765</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1784468187043894</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1648180038997735</v>
+        <v>0.1654637146093962</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1917224465124891</v>
+        <v>0.1910889779126899</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1396</v>
@@ -5936,19 +5936,19 @@
         <v>1489968</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1421743</v>
+        <v>1420066</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1565277</v>
+        <v>1551314</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2137427059800371</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.20395548489687</v>
+        <v>0.2037148854337428</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.224546100286962</v>
+        <v>0.2225431241102234</v>
       </c>
     </row>
     <row r="38">
@@ -5965,19 +5965,19 @@
         <v>1424032</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1366124</v>
+        <v>1368947</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1485431</v>
+        <v>1484841</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4165348382083207</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3995964468013908</v>
+        <v>0.4004222916858048</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4344942622944854</v>
+        <v>0.4343216259070339</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>880</v>
@@ -5986,19 +5986,19 @@
         <v>953754</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>903501</v>
+        <v>899215</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1004854</v>
+        <v>1017247</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2685050644744791</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2543577135197362</v>
+        <v>0.2531510060186603</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2828910366039695</v>
+        <v>0.2863799060772107</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2216</v>
@@ -6007,19 +6007,19 @@
         <v>2377786</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2294257</v>
+        <v>2300072</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2457203</v>
+        <v>2461507</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3411042900922188</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3291216137898975</v>
+        <v>0.3299558708442459</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3524969352052602</v>
+        <v>0.353114431427873</v>
       </c>
     </row>
     <row r="39">
@@ -6363,19 +6363,19 @@
         <v>10708</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5261</v>
+        <v>5071</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20433</v>
+        <v>20323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01076595203412437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005289051679097937</v>
+        <v>0.00509779067833725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02054285908074166</v>
+        <v>0.02043213123536833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6384,19 +6384,19 @@
         <v>10708</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5282</v>
+        <v>5214</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19761</v>
+        <v>19813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006122596429221022</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00302003828570215</v>
+        <v>0.002981305334699122</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01129836699031891</v>
+        <v>0.01132809383228079</v>
       </c>
     </row>
     <row r="5">
@@ -6413,19 +6413,19 @@
         <v>15683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9302</v>
+        <v>8563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25549</v>
+        <v>24950</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02079033727828759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01233178691587564</v>
+        <v>0.01135158283287027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03386920587779869</v>
+        <v>0.03307469298914115</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -6434,19 +6434,19 @@
         <v>22105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13826</v>
+        <v>13199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33772</v>
+        <v>33950</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02222340406339386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01390071545978665</v>
+        <v>0.01326962146878913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03395312793628281</v>
+        <v>0.03413237551393186</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -6455,19 +6455,19 @@
         <v>37788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26521</v>
+        <v>25712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51732</v>
+        <v>52424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02160532229340897</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01516371428738164</v>
+        <v>0.01470104364246387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02957789684864271</v>
+        <v>0.02997380832401559</v>
       </c>
     </row>
     <row r="6">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7378</v>
+        <v>6407</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002819699077156178</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009780224823879609</v>
+        <v>0.0084931605415552</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -6505,19 +6505,19 @@
         <v>7143</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3022</v>
+        <v>3004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13184</v>
+        <v>14073</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007181741815476933</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003038469504369266</v>
+        <v>0.003020374511037002</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01325489715011921</v>
+        <v>0.01414823621843861</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -6526,19 +6526,19 @@
         <v>9270</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4239</v>
+        <v>4074</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18063</v>
+        <v>17542</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005300392582858232</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002423877225818496</v>
+        <v>0.002329355596791649</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01032729827659059</v>
+        <v>0.01002986962315141</v>
       </c>
     </row>
     <row r="7">
@@ -6568,19 +6568,19 @@
         <v>533240</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>501198</v>
+        <v>499560</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>566515</v>
+        <v>565297</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5361025529803792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5038882635094463</v>
+        <v>0.5022421974011891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5695568402216908</v>
+        <v>0.5683316152602109</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>465</v>
@@ -6589,19 +6589,19 @@
         <v>533240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>494799</v>
+        <v>494411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>572550</v>
+        <v>575807</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3048814973510987</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2829030940888008</v>
+        <v>0.282680727945712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.327357306339039</v>
+        <v>0.329219381728233</v>
       </c>
     </row>
     <row r="8">
@@ -6618,19 +6618,19 @@
         <v>418801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391487</v>
+        <v>392606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445954</v>
+        <v>445371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.555183447841115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5189742201255867</v>
+        <v>0.5204575181401199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.591179514830143</v>
+        <v>0.5904056344876099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>168</v>
@@ -6639,19 +6639,19 @@
         <v>194706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>168845</v>
+        <v>169222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221482</v>
+        <v>221725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1957509280630854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1697516375643921</v>
+        <v>0.170130125227147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2226710110962078</v>
+        <v>0.2229156288299578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -6660,19 +6660,19 @@
         <v>613507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>572619</v>
+        <v>572580</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>650212</v>
+        <v>653061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3507741902888296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3273965313381468</v>
+        <v>0.3273745702060122</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3717607577257875</v>
+        <v>0.3733893585191586</v>
       </c>
     </row>
     <row r="9">
@@ -6689,19 +6689,19 @@
         <v>8857</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3961</v>
+        <v>3953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15960</v>
+        <v>15941</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01174162391315561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005250249767546763</v>
+        <v>0.005239986559216312</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02115693856044802</v>
+        <v>0.02113283675241046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6710,19 +6710,19 @@
         <v>3188</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8576</v>
+        <v>8530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003204960598671468</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001005224245448547</v>
+        <v>0.001003417511875196</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008621983187799415</v>
+        <v>0.008575486056002436</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -6731,19 +6731,19 @@
         <v>12045</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6191</v>
+        <v>6750</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20171</v>
+        <v>19999</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006886823876795079</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00353966271969522</v>
+        <v>0.003859047444506802</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01153263892989673</v>
+        <v>0.01143444659405153</v>
       </c>
     </row>
     <row r="10">
@@ -6760,19 +6760,19 @@
         <v>165760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143898</v>
+        <v>144636</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189145</v>
+        <v>191605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2197402910790338</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1907587417911724</v>
+        <v>0.1917369951178559</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2507396852509668</v>
+        <v>0.2540016517188716</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -6781,19 +6781,19 @@
         <v>151483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130144</v>
+        <v>128117</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175699</v>
+        <v>175128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1522965092865674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1308425994709121</v>
+        <v>0.1288052212950698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1766425910646254</v>
+        <v>0.1760681761897689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -6802,19 +6802,19 @@
         <v>317244</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286027</v>
+        <v>283708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>353011</v>
+        <v>349102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1813850154594818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1635365416010806</v>
+        <v>0.1622106978835947</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2018348888728202</v>
+        <v>0.1995999494812198</v>
       </c>
     </row>
     <row r="11">
@@ -6831,19 +6831,19 @@
         <v>143118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122794</v>
+        <v>122277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165966</v>
+        <v>166943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1897246008112519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1627816835342011</v>
+        <v>0.162096221041682</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.220012432043474</v>
+        <v>0.2213075045654004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -6852,19 +6852,19 @@
         <v>72087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57073</v>
+        <v>57276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89142</v>
+        <v>89397</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07247395115830137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05737968276837264</v>
+        <v>0.05758334137963496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0896205558891129</v>
+        <v>0.0898770415906924</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>206</v>
@@ -6873,19 +6873,19 @@
         <v>215205</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>188070</v>
+        <v>189032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246649</v>
+        <v>247036</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1230441617183066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1075294315119684</v>
+        <v>0.108079620490171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1410224200092907</v>
+        <v>0.1412438264953542</v>
       </c>
     </row>
     <row r="12">
@@ -6977,19 +6977,19 @@
         <v>6943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2949</v>
+        <v>2870</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13948</v>
+        <v>14064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003343668406031489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001420357492949626</v>
+        <v>0.001382419177050319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006717668561557462</v>
+        <v>0.006773191496887784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -6998,19 +6998,19 @@
         <v>7340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3003</v>
+        <v>3019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16608</v>
+        <v>15883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003691786822751627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001510091616049653</v>
+        <v>0.001518566479511589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008352831697316092</v>
+        <v>0.007988312469272335</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -7019,19 +7019,19 @@
         <v>14283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7904</v>
+        <v>7546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24756</v>
+        <v>25039</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003513955615339185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00194449609867874</v>
+        <v>0.00185651841339793</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006090549862293729</v>
+        <v>0.006160102275706174</v>
       </c>
     </row>
     <row r="14">
@@ -7048,19 +7048,19 @@
         <v>50210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36305</v>
+        <v>36901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65436</v>
+        <v>67749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02418130706807699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01748494384894333</v>
+        <v>0.01777190181002502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03151431465874312</v>
+        <v>0.03262824170487368</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -7069,19 +7069,19 @@
         <v>29722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21003</v>
+        <v>20106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42616</v>
+        <v>43512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01494820983879743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01056324906438438</v>
+        <v>0.01011216225852206</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02143316542821735</v>
+        <v>0.02188400895964787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -7090,19 +7090,19 @@
         <v>79931</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62734</v>
+        <v>63487</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100130</v>
+        <v>101021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01966480266921714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01543400648059672</v>
+        <v>0.01561923946249666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02463402924703394</v>
+        <v>0.02485336458502389</v>
       </c>
     </row>
     <row r="15">
@@ -7119,19 +7119,19 @@
         <v>223960</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>198717</v>
+        <v>197152</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>254346</v>
+        <v>255780</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1078604033929618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09570317887874256</v>
+        <v>0.09494952179541946</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1224944763138748</v>
+        <v>0.1231851410654129</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>183</v>
@@ -7140,19 +7140,19 @@
         <v>181720</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>157249</v>
+        <v>158683</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>210235</v>
+        <v>208449</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09139478066687783</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07908699707508371</v>
+        <v>0.07980845352593448</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.105736093982143</v>
+        <v>0.1048376836978683</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>394</v>
@@ -7161,19 +7161,19 @@
         <v>405680</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>370124</v>
+        <v>371526</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>448206</v>
+        <v>445723</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09980600348515017</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09105853431049941</v>
+        <v>0.09140347930762051</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.110268420815317</v>
+        <v>0.1096575038132668</v>
       </c>
     </row>
     <row r="16">
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5151</v>
+        <v>5956</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0004934308077016422</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.002480543756660086</v>
+        <v>0.002868216332947684</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>461</v>
@@ -7211,19 +7211,19 @@
         <v>497235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>458991</v>
+        <v>462356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539704</v>
+        <v>540849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2500803679362271</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2308459953756894</v>
+        <v>0.2325385419008756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2714398985603231</v>
+        <v>0.2720157119895595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>462</v>
@@ -7232,19 +7232,19 @@
         <v>498259</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>450934</v>
+        <v>459325</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541826</v>
+        <v>547849</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1225825273964636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1109395236131909</v>
+        <v>0.113003955087978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1333008136887746</v>
+        <v>0.1347826127981449</v>
       </c>
     </row>
     <row r="17">
@@ -7261,19 +7261,19 @@
         <v>306305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>276061</v>
+        <v>274571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>337059</v>
+        <v>340130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1475183626223068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1329525409382626</v>
+        <v>0.132234970335686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1623296061857342</v>
+        <v>0.1638087430320472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -7282,19 +7282,19 @@
         <v>133644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>111272</v>
+        <v>109984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>158666</v>
+        <v>158604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06721502882754245</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05596324655431784</v>
+        <v>0.05531579752747409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07979959951340189</v>
+        <v>0.07976878405174281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -7303,19 +7303,19 @@
         <v>439949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396652</v>
+        <v>403827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>477982</v>
+        <v>482960</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1082368137204911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09758490316481735</v>
+        <v>0.09935019008380545</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.117593871485995</v>
+        <v>0.118818590027254</v>
       </c>
     </row>
     <row r="18">
@@ -7332,19 +7332,19 @@
         <v>25920</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16839</v>
+        <v>16745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36306</v>
+        <v>38810</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01248341056363868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008109817878664534</v>
+        <v>0.008064581251834039</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01748524406356616</v>
+        <v>0.01869135652305366</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -7353,19 +7353,19 @@
         <v>18200</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10747</v>
+        <v>11369</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27285</v>
+        <v>27887</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.009153430044455613</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005404925061288558</v>
+        <v>0.005718195149837122</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01372300661525992</v>
+        <v>0.01402548451656996</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>43</v>
@@ -7374,19 +7374,19 @@
         <v>44120</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32296</v>
+        <v>32278</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59591</v>
+        <v>58479</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01085450194397049</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007945415341578133</v>
+        <v>0.007941051033711094</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01466060398578407</v>
+        <v>0.01438701134485364</v>
       </c>
     </row>
     <row r="19">
@@ -7403,19 +7403,19 @@
         <v>536826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>496737</v>
+        <v>499632</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>582609</v>
+        <v>576742</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2585385335997526</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2392317502787496</v>
+        <v>0.2406257547586501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.280588054356274</v>
+        <v>0.2777625307547953</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>458</v>
@@ -7424,19 +7424,19 @@
         <v>467665</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>431997</v>
+        <v>431023</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>504741</v>
+        <v>509729</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2352083605368345</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2172697460812169</v>
+        <v>0.2167798805995855</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2538553860215069</v>
+        <v>0.2563640274729372</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>961</v>
@@ -7445,19 +7445,19 @@
         <v>1004490</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>946575</v>
+        <v>944981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1058477</v>
+        <v>1058028</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.247126238608351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2328779347238966</v>
+        <v>0.2324856049585458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2604081142331495</v>
+        <v>0.2602977842916597</v>
       </c>
     </row>
     <row r="20">
@@ -7474,19 +7474,19 @@
         <v>925197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>880695</v>
+        <v>878434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>968046</v>
+        <v>968516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4455808835395301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4241484478232254</v>
+        <v>0.4230592591641965</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4662169014513223</v>
+        <v>0.4664433574365063</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>638</v>
@@ -7495,19 +7495,19 @@
         <v>652775</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>610335</v>
+        <v>609047</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>694624</v>
+        <v>692555</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3283080353265135</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3069634537786136</v>
+        <v>0.3063154553722274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3493555460919224</v>
+        <v>0.3483151873836663</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1503</v>
@@ -7516,19 +7516,19 @@
         <v>1577972</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1516470</v>
+        <v>1514474</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1642224</v>
+        <v>1647641</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3882151565610173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3730842274309044</v>
+        <v>0.3725932472821836</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4040224977620724</v>
+        <v>0.405355223037779</v>
       </c>
     </row>
     <row r="21">
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5144</v>
+        <v>4810</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001764673493443079</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009406894135371506</v>
+        <v>0.008796073115598144</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4591</v>
+        <v>4405</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001653203120655509</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008378917878739201</v>
+        <v>0.008038307302799374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6643</v>
+        <v>5678</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001708882892219675</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006067306996118257</v>
+        <v>0.005186324976531952</v>
       </c>
     </row>
     <row r="23">
@@ -7691,19 +7691,19 @@
         <v>6137</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2154</v>
+        <v>2122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12620</v>
+        <v>13020</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01122210205497115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003938549747356987</v>
+        <v>0.003879474901717555</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02307587507393637</v>
+        <v>0.02380789622781891</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7773</v>
+        <v>6257</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003558497822347498</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01418550695218327</v>
+        <v>0.01141825219730036</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -7733,19 +7733,19 @@
         <v>8087</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3094</v>
+        <v>4024</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15057</v>
+        <v>16100</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0073864901611176</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002826192122199752</v>
+        <v>0.003675404294448612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01375247811623594</v>
+        <v>0.01470463812121835</v>
       </c>
     </row>
     <row r="24">
@@ -7762,19 +7762,19 @@
         <v>50619</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37414</v>
+        <v>36447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65375</v>
+        <v>64970</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09255777432155259</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06841206246500191</v>
+        <v>0.06664478508577021</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1195397312142543</v>
+        <v>0.1188003066431056</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -7783,19 +7783,19 @@
         <v>36181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26426</v>
+        <v>25757</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48235</v>
+        <v>49239</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06602623497705296</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0482250848118882</v>
+        <v>0.04700462293403377</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08802324586046971</v>
+        <v>0.08985675687583947</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>84</v>
@@ -7804,19 +7804,19 @@
         <v>86799</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>70661</v>
+        <v>68404</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106027</v>
+        <v>105239</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07927881512911437</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06453864600067571</v>
+        <v>0.06247690541944492</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09684020313962993</v>
+        <v>0.09612066915569191</v>
       </c>
     </row>
     <row r="25">
@@ -7846,19 +7846,19 @@
         <v>55769</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42186</v>
+        <v>41838</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73254</v>
+        <v>71392</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1017731701982524</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07698511778289155</v>
+        <v>0.07635054219076741</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1336809258240846</v>
+        <v>0.1302828060059942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -7867,19 +7867,19 @@
         <v>55769</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42725</v>
+        <v>43194</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73544</v>
+        <v>73461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05093717919642065</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0390230005940608</v>
+        <v>0.03945151709531519</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06717171065738076</v>
+        <v>0.06709619641695801</v>
       </c>
     </row>
     <row r="26">
@@ -7896,19 +7896,19 @@
         <v>61359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46209</v>
+        <v>47882</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80088</v>
+        <v>77554</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1121973295180652</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08449511201098941</v>
+        <v>0.08755441521118822</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1464436567981739</v>
+        <v>0.1418101811570292</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -7917,19 +7917,19 @@
         <v>35141</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23115</v>
+        <v>23669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49511</v>
+        <v>51201</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0641290137713223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04218182095601999</v>
+        <v>0.04319326202346425</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09035269356381016</v>
+        <v>0.09343669213374232</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>85</v>
@@ -7938,19 +7938,19 @@
         <v>96500</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>78242</v>
+        <v>78515</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>117900</v>
+        <v>118862</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08813927563124607</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0714631168340906</v>
+        <v>0.0717127304696614</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1076846175065239</v>
+        <v>0.1085639466053601</v>
       </c>
     </row>
     <row r="27">
@@ -7967,19 +7967,19 @@
         <v>5837</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2772</v>
+        <v>1996</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11687</v>
+        <v>12031</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01067280629691309</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005068990347979055</v>
+        <v>0.003650066425091815</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02136940352059323</v>
+        <v>0.02199924326076678</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -7988,19 +7988,19 @@
         <v>8583</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4566</v>
+        <v>3882</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>16379</v>
+        <v>15642</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01566270969868365</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.008331593283138008</v>
+        <v>0.007085028405740417</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02988930461279855</v>
+        <v>0.0285446328191204</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -8009,19 +8009,19 @@
         <v>14420</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>8715</v>
+        <v>8564</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>23428</v>
+        <v>24244</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01317023860892316</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.007959550813311383</v>
+        <v>0.007821548709561123</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02139859669190663</v>
+        <v>0.02214380585087988</v>
       </c>
     </row>
     <row r="28">
@@ -8038,19 +8038,19 @@
         <v>71361</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55340</v>
+        <v>54281</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88628</v>
+        <v>89717</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1304866503718538</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1011911072228649</v>
+        <v>0.09925524954367981</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1620587973240834</v>
+        <v>0.164051314071578</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>98</v>
@@ -8059,19 +8059,19 @@
         <v>100992</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>84955</v>
+        <v>83574</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>123065</v>
+        <v>119819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1843004527093458</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1550337701034206</v>
+        <v>0.1525139024162547</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.224581283336931</v>
+        <v>0.2186578835262652</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>161</v>
@@ -8080,19 +8080,19 @@
         <v>172353</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>150301</v>
+        <v>149882</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>198389</v>
+        <v>197591</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1574203037852822</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.137278181972387</v>
+        <v>0.1368961021417615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1812005717526289</v>
+        <v>0.1804711032608962</v>
       </c>
     </row>
     <row r="29">
@@ -8109,19 +8109,19 @@
         <v>350608</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>325785</v>
+        <v>323564</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>373639</v>
+        <v>373999</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6410986639432011</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.595709161061784</v>
+        <v>0.5916481177410174</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6832114824680856</v>
+        <v>0.6838698136681269</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>299</v>
@@ -8130,19 +8130,19 @@
         <v>308453</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>285214</v>
+        <v>284793</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>332517</v>
+        <v>334285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.56289671770234</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5204868708684738</v>
+        <v>0.519718992756827</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.606810019306117</v>
+        <v>0.610036172123532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>620</v>
@@ -8151,19 +8151,19 @@
         <v>659061</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>627833</v>
+        <v>627347</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>690581</v>
+        <v>693556</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6019588145956764</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5734359139365082</v>
+        <v>0.5729921530302273</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6307480461362682</v>
+        <v>0.6334647223499121</v>
       </c>
     </row>
     <row r="30">
@@ -8255,19 +8255,19 @@
         <v>7908</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3727</v>
+        <v>3932</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14842</v>
+        <v>15595</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002341241194681811</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00110353813932246</v>
+        <v>0.001164222460566335</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.004394075669892594</v>
+        <v>0.004617208722442227</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -8276,19 +8276,19 @@
         <v>18955</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10981</v>
+        <v>11504</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31307</v>
+        <v>31457</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.005368197744872195</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003110074897160729</v>
+        <v>0.003258148420139238</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.008866560420489765</v>
+        <v>0.008908954273743261</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -8297,19 +8297,19 @@
         <v>26863</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18255</v>
+        <v>16421</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41090</v>
+        <v>39730</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003888307119138524</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002642363273808506</v>
+        <v>0.002376933661403575</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.005947703447007906</v>
+        <v>0.005750856610745226</v>
       </c>
     </row>
     <row r="32">
@@ -8326,19 +8326,19 @@
         <v>72030</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55170</v>
+        <v>56781</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92809</v>
+        <v>91092</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02132569157617752</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.016334141856932</v>
+        <v>0.01681094623607544</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02747757946487242</v>
+        <v>0.02696929970406048</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -8347,19 +8347,19 @@
         <v>53776</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41332</v>
+        <v>41306</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70982</v>
+        <v>71415</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01523002494113014</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01170568285032766</v>
+        <v>0.01169840977812634</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02010284752383586</v>
+        <v>0.0202255238285021</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>114</v>
@@ -8368,19 +8368,19 @@
         <v>125806</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>104723</v>
+        <v>104631</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>147809</v>
+        <v>148759</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01821021965526859</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01515851627019987</v>
+        <v>0.0151451431931103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02139506437663617</v>
+        <v>0.02153262916984548</v>
       </c>
     </row>
     <row r="33">
@@ -8397,19 +8397,19 @@
         <v>276705</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>244997</v>
+        <v>243103</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>314663</v>
+        <v>308885</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08192321414050732</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07253551121160798</v>
+        <v>0.0719745811776199</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09316109612599573</v>
+        <v>0.09145064613039569</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>227</v>
@@ -8418,19 +8418,19 @@
         <v>225044</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>195467</v>
+        <v>195517</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>253630</v>
+        <v>253713</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06373505847168738</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05535841107148071</v>
+        <v>0.05537267774159101</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07183087454178351</v>
+        <v>0.07185425134782292</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>487</v>
@@ -8439,19 +8439,19 @@
         <v>501750</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>460439</v>
+        <v>457677</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>543868</v>
+        <v>544997</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07262731728920441</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06664769232098988</v>
+        <v>0.06624783959097288</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07872384565307902</v>
+        <v>0.07888733922571214</v>
       </c>
     </row>
     <row r="34">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5705</v>
+        <v>5140</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0003033357528880974</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.001688962345957439</v>
+        <v>0.001521839087438966</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>977</v>
@@ -8489,19 +8489,19 @@
         <v>1086244</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1031757</v>
+        <v>1032463</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1143531</v>
+        <v>1144764</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.307636304999054</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2922050066979717</v>
+        <v>0.2924049051290185</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3238606902393902</v>
+        <v>0.3242098021078488</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>978</v>
@@ -8510,19 +8510,19 @@
         <v>1087268</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1026468</v>
+        <v>1024603</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1154648</v>
+        <v>1147916</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1573800417772747</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1485792818143773</v>
+        <v>0.148309340927184</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1671331192606887</v>
+        <v>0.1661586019235366</v>
       </c>
     </row>
     <row r="35">
@@ -8539,19 +8539,19 @@
         <v>786465</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>737426</v>
+        <v>736608</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>833725</v>
+        <v>834761</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2328460307240964</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2183271165274767</v>
+        <v>0.21808498731393</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2468382272396064</v>
+        <v>0.2471448894341413</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>311</v>
@@ -8560,19 +8560,19 @@
         <v>363490</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>325196</v>
+        <v>323750</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>403781</v>
+        <v>401148</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1029445122202676</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09209912281439879</v>
+        <v>0.09168963916874009</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.114355300163116</v>
+        <v>0.1136094723296085</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1108</v>
@@ -8581,19 +8581,19 @@
         <v>1149955</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1090626</v>
+        <v>1093241</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1217692</v>
+        <v>1210116</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1664538610711105</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1578660550659604</v>
+        <v>0.1582445169296654</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1762586657928882</v>
+        <v>0.1751620622047265</v>
       </c>
     </row>
     <row r="36">
@@ -8610,19 +8610,19 @@
         <v>40614</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29378</v>
+        <v>29969</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>56399</v>
+        <v>56199</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01202457863782838</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008697741371859503</v>
+        <v>0.008872920946781397</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01669779265681155</v>
+        <v>0.01663862967136607</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -8631,19 +8631,19 @@
         <v>29970</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20957</v>
+        <v>20454</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>41457</v>
+        <v>41846</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.008487944988243975</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005935129540614609</v>
+        <v>0.005792868304614193</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0117410606909231</v>
+        <v>0.01185132556115455</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>70</v>
@@ -8652,19 +8652,19 @@
         <v>70585</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>56442</v>
+        <v>56177</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>88360</v>
+        <v>88565</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01021701869574236</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.008169940261994154</v>
+        <v>0.008131500957841679</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01278989396019719</v>
+        <v>0.0128195610254786</v>
       </c>
     </row>
     <row r="37">
@@ -8681,19 +8681,19 @@
         <v>773947</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>720787</v>
+        <v>722432</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>822023</v>
+        <v>821354</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2291399619483099</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2134009318724257</v>
+        <v>0.2138881538052526</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2433736075977477</v>
+        <v>0.2431755974103963</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>706</v>
@@ -8702,19 +8702,19 @@
         <v>720140</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>672160</v>
+        <v>672574</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>767865</v>
+        <v>771621</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2039516625914938</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1903632190809098</v>
+        <v>0.1904804641020658</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2174678381450597</v>
+        <v>0.2185316025482789</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1430</v>
@@ -8723,19 +8723,19 @@
         <v>1494087</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1425279</v>
+        <v>1430200</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1563432</v>
+        <v>1561122</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2162663184110433</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2063063899747883</v>
+        <v>0.207018695815007</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2263038672771648</v>
+        <v>0.2259694114670607</v>
       </c>
     </row>
     <row r="38">
@@ -8752,19 +8752,19 @@
         <v>1418924</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1358631</v>
+        <v>1366240</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1480942</v>
+        <v>1488324</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4200959460255106</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4022453679647581</v>
+        <v>0.4044981901772611</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4384575892827668</v>
+        <v>0.4406431361440224</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1009</v>
@@ -8773,19 +8773,19 @@
         <v>1033315</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>983118</v>
+        <v>979498</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1091713</v>
+        <v>1089027</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2926462940432509</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2784298086333417</v>
+        <v>0.2774046535481416</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3091852779540469</v>
+        <v>0.3084246413043439</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2329</v>
@@ -8794,19 +8794,19 @@
         <v>2452239</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2369659</v>
+        <v>2370451</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2535106</v>
+        <v>2536648</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3549569159812176</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.343003633549693</v>
+        <v>0.3431183593703598</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3669518323688975</v>
+        <v>0.3671749946690933</v>
       </c>
     </row>
     <row r="39">
@@ -9137,19 +9137,19 @@
         <v>6264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2183</v>
+        <v>2190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14918</v>
+        <v>14228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01082722101553844</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003772821522227263</v>
+        <v>0.003785970053589668</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02578524914586608</v>
+        <v>0.02459362122901579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -9158,19 +9158,19 @@
         <v>52489</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43187</v>
+        <v>42906</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64084</v>
+        <v>63776</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0638524472007907</v>
+        <v>0.06385244720079068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05253592611295016</v>
+        <v>0.05219435235852528</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07795760609596057</v>
+        <v>0.07758235327053407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -9179,19 +9179,19 @@
         <v>58753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47732</v>
+        <v>48659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70590</v>
+        <v>72110</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04194942726039492</v>
+        <v>0.04194942726039491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03408049291031904</v>
+        <v>0.03474262963111557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05040068816427733</v>
+        <v>0.05148594424685733</v>
       </c>
     </row>
     <row r="5">
@@ -9208,19 +9208,19 @@
         <v>47410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34885</v>
+        <v>34888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62487</v>
+        <v>61732</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08194988175519961</v>
+        <v>0.08194988175519963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06029951321973045</v>
+        <v>0.06030392192089559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1080105635215418</v>
+        <v>0.1067048233469503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -9229,19 +9229,19 @@
         <v>25178</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18755</v>
+        <v>18823</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34451</v>
+        <v>33302</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03062911050036363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02281489053131192</v>
+        <v>0.02289762698165559</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04190874515646126</v>
+        <v>0.04051098575589396</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -9250,19 +9250,19 @@
         <v>72589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57952</v>
+        <v>59368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86992</v>
+        <v>90475</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05182807478623028</v>
+        <v>0.05182807478623026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04137767106570352</v>
+        <v>0.04238841776715499</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06211201297917849</v>
+        <v>0.06459900571526106</v>
       </c>
     </row>
     <row r="6">
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9562</v>
+        <v>8702</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003030325085901361</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01652821104594544</v>
+        <v>0.01504120619788222</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16497</v>
+        <v>17320</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004841855565177399</v>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02006819964190109</v>
+        <v>0.0210695941030602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -9321,19 +9321,19 @@
         <v>5733</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17755</v>
+        <v>18530</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.004093570436291834</v>
+        <v>0.004093570436291833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.000771101193256985</v>
+        <v>0.0007739021108373197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01267734292155706</v>
+        <v>0.01323033154037498</v>
       </c>
     </row>
     <row r="7">
@@ -9350,19 +9350,19 @@
         <v>1961</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>421</v>
+        <v>575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5235</v>
+        <v>5965</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00339047614760884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0007277214816033636</v>
+        <v>0.0009937597618884036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009048993910603828</v>
+        <v>0.01031095165350745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>622</v>
@@ -9371,19 +9371,19 @@
         <v>349734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>328248</v>
+        <v>328092</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>371108</v>
+        <v>370763</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4254476219722755</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3993098175966395</v>
+        <v>0.399119729414778</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4514485245579108</v>
+        <v>0.4510286009611272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>625</v>
@@ -9392,19 +9392,19 @@
         <v>351695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>326394</v>
+        <v>327668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378483</v>
+        <v>377517</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2511093542072754</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2330442308256614</v>
+        <v>0.2339534730803177</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2702356077854263</v>
+        <v>0.2695454917754909</v>
       </c>
     </row>
     <row r="8">
@@ -9421,19 +9421,19 @@
         <v>300651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>277269</v>
+        <v>275924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>323693</v>
+        <v>322364</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5196810019831585</v>
+        <v>0.5196810019831584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4792646968532411</v>
+        <v>0.4769406816119198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5595104400786165</v>
+        <v>0.5572126954870413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -9442,19 +9442,19 @@
         <v>242831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>223108</v>
+        <v>224026</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>261751</v>
+        <v>262330</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2954011393755215</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2714082471109286</v>
+        <v>0.2725247832785785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3184175987520058</v>
+        <v>0.3191217907430773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>890</v>
@@ -9463,19 +9463,19 @@
         <v>543482</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>509741</v>
+        <v>513406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>572639</v>
+        <v>571803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.388043955942904</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3639536317046012</v>
+        <v>0.3665703315990175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.408862159008149</v>
+        <v>0.4082656758808731</v>
       </c>
     </row>
     <row r="9">
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10380</v>
+        <v>10161</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003556692511909234</v>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01262717852258994</v>
+        <v>0.01236110600345116</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10121</v>
+        <v>8866</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002087536930412233</v>
@@ -9538,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00722646853920598</v>
+        <v>0.006330471526928959</v>
       </c>
     </row>
     <row r="10">
@@ -9555,19 +9555,19 @@
         <v>56555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43263</v>
+        <v>43333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71214</v>
+        <v>72077</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09775679363082289</v>
+        <v>0.0977567936308229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0747815998089152</v>
+        <v>0.07490241967333153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1230952180267592</v>
+        <v>0.1245863710224696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -9576,19 +9576,19 @@
         <v>54890</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44225</v>
+        <v>43013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67658</v>
+        <v>67179</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0667731232642212</v>
+        <v>0.06677312326422122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05379962862603126</v>
+        <v>0.05232508387184021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.082305790984658</v>
+        <v>0.0817230701448866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -9597,19 +9597,19 @@
         <v>111445</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94716</v>
+        <v>94323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131082</v>
+        <v>128947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07957148356720986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06762687000835121</v>
+        <v>0.06734643990789747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0935920633162536</v>
+        <v>0.09206781297480332</v>
       </c>
     </row>
     <row r="11">
@@ -9626,19 +9626,19 @@
         <v>163934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143226</v>
+        <v>141437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>190280</v>
+        <v>190055</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2833643003817705</v>
+        <v>0.2833643003817706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2475698997447111</v>
+        <v>0.2444775141777376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3289031169629722</v>
+        <v>0.3285145119080513</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -9647,19 +9647,19 @@
         <v>90012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74098</v>
+        <v>75418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106644</v>
+        <v>106453</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1094980096097408</v>
+        <v>0.1094980096097409</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09013892371965468</v>
+        <v>0.09174573225496697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1297311988361566</v>
+        <v>0.1294982726025353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>266</v>
@@ -9668,19 +9668,19 @@
         <v>253946</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>227603</v>
+        <v>226691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>286500</v>
+        <v>284720</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1813165968692815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1625074119093259</v>
+        <v>0.1618568421410105</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2045603022272091</v>
+        <v>0.2032891237736855</v>
       </c>
     </row>
     <row r="12">
@@ -9772,19 +9772,19 @@
         <v>12332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7158</v>
+        <v>6944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21194</v>
+        <v>21905</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005536092814999815</v>
+        <v>0.005536092814999816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003213204603459789</v>
+        <v>0.003117096484245941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009514160600378527</v>
+        <v>0.009833445519309189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -9793,19 +9793,19 @@
         <v>50137</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38175</v>
+        <v>37471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66799</v>
+        <v>65303</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02309357843893858</v>
+        <v>0.02309357843893859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0175840442389714</v>
+        <v>0.01725968298893597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03076870968374189</v>
+        <v>0.03007962319687949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -9814,19 +9814,19 @@
         <v>62469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49811</v>
+        <v>48705</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79418</v>
+        <v>82246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01420184199309578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01132407284234654</v>
+        <v>0.01107279491043961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01805498004115585</v>
+        <v>0.0186979520615639</v>
       </c>
     </row>
     <row r="14">
@@ -9843,19 +9843,19 @@
         <v>100806</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81477</v>
+        <v>83988</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121988</v>
+        <v>121835</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04525235964351564</v>
+        <v>0.04525235964351565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03657533986638857</v>
+        <v>0.03770256084507655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0547613767670737</v>
+        <v>0.05469250056923419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -9864,19 +9864,19 @@
         <v>47009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37069</v>
+        <v>35885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58614</v>
+        <v>57611</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02165310400610631</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01707463517361009</v>
+        <v>0.01652896629155467</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02699823924622992</v>
+        <v>0.02653619727370986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -9885,19 +9885,19 @@
         <v>147815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124473</v>
+        <v>127477</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170427</v>
+        <v>173078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03360460810757112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02829795296285128</v>
+        <v>0.02898082512876669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03874519970654396</v>
+        <v>0.03934795308960226</v>
       </c>
     </row>
     <row r="15">
@@ -9914,19 +9914,19 @@
         <v>218081</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>174629</v>
+        <v>180165</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>266849</v>
+        <v>264451</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09789794906002817</v>
+        <v>0.09789794906002819</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07839215287862475</v>
+        <v>0.08087735307688806</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1197902936817743</v>
+        <v>0.1187137533800784</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>122</v>
@@ -9935,19 +9935,19 @@
         <v>209557</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>174945</v>
+        <v>176696</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>246302</v>
+        <v>248991</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09652455580531656</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08058216614307005</v>
+        <v>0.08138866795790957</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1134498063200514</v>
+        <v>0.1146883946910612</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>212</v>
@@ -9956,19 +9956,19 @@
         <v>427638</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>373785</v>
+        <v>371513</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>484909</v>
+        <v>487900</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09722009109544623</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08497712813057623</v>
+        <v>0.08446059654015477</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1102401856363736</v>
+        <v>0.1109202463992257</v>
       </c>
     </row>
     <row r="16">
@@ -9985,19 +9985,19 @@
         <v>3390</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1091</v>
+        <v>939</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10111</v>
+        <v>8705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001521570084840762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0004899061115180009</v>
+        <v>0.0004215795625540367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004539088913828821</v>
+        <v>0.003907771174233554</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>617</v>
@@ -10006,19 +10006,19 @@
         <v>405504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>375410</v>
+        <v>377731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>439599</v>
+        <v>438781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1867802979216765</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1729189152610178</v>
+        <v>0.1739878565722691</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2024850073623805</v>
+        <v>0.2021084192168349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>621</v>
@@ -10027,19 +10027,19 @@
         <v>408893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>374017</v>
+        <v>376469</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>439701</v>
+        <v>442180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09295867576575173</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08502990624392048</v>
+        <v>0.08558722110268871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09996257457441653</v>
+        <v>0.1005262059639502</v>
       </c>
     </row>
     <row r="17">
@@ -10056,19 +10056,19 @@
         <v>360680</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327659</v>
+        <v>330563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>392308</v>
+        <v>391968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1619116588936061</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1470883199544299</v>
+        <v>0.1483916137086541</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1761096304765556</v>
+        <v>0.1759568142499996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>362</v>
@@ -10077,19 +10077,19 @@
         <v>192901</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173287</v>
+        <v>174077</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213123</v>
+        <v>215023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08885279534811456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07981839930198656</v>
+        <v>0.08018195484855328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09816710672177763</v>
+        <v>0.09904222552745894</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>846</v>
@@ -10098,19 +10098,19 @@
         <v>553581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>514817</v>
+        <v>516895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>588559</v>
+        <v>592667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1258524075701276</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1170395478965389</v>
+        <v>0.1175120367777938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1338042827272471</v>
+        <v>0.1347382398327655</v>
       </c>
     </row>
     <row r="18">
@@ -10127,19 +10127,19 @@
         <v>30397</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17916</v>
+        <v>16969</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50170</v>
+        <v>53351</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01364537665130944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008042730677150087</v>
+        <v>0.007617517074382188</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02252176998837697</v>
+        <v>0.02394952300479902</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -10148,19 +10148,19 @@
         <v>30163</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17940</v>
+        <v>19897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45324</v>
+        <v>49397</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01389343427891533</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008263402293195882</v>
+        <v>0.009164743175414212</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02087701016662189</v>
+        <v>0.02275281255740433</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -10169,19 +10169,19 @@
         <v>60560</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41034</v>
+        <v>41955</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86897</v>
+        <v>86374</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0137678090558455</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009328822948507776</v>
+        <v>0.009538188434895642</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01975540902270119</v>
+        <v>0.01963636378053958</v>
       </c>
     </row>
     <row r="19">
@@ -10198,19 +10198,19 @@
         <v>225655</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>193800</v>
+        <v>191265</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257919</v>
+        <v>263416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1012981368935714</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08699796251102869</v>
+        <v>0.08585989354294229</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.115781446446309</v>
+        <v>0.1182489494352076</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>387</v>
@@ -10219,19 +10219,19 @@
         <v>288784</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>260992</v>
+        <v>260933</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>319743</v>
+        <v>323349</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1330176412697114</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1202161997800692</v>
+        <v>0.1201892549931801</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.14727762658164</v>
+        <v>0.1489385859914979</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>575</v>
@@ -10240,19 +10240,19 @@
         <v>514439</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>470456</v>
+        <v>472738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>561765</v>
+        <v>561506</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1169537538118829</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1069545870344976</v>
+        <v>0.10747341928133</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1277130085780965</v>
+        <v>0.1276539355753258</v>
       </c>
     </row>
     <row r="20">
@@ -10269,19 +10269,19 @@
         <v>1276295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1220962</v>
+        <v>1223614</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1324179</v>
+        <v>1332215</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5729368559581287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5480977192579825</v>
+        <v>0.5492881255368752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5944322830414918</v>
+        <v>0.5980397309795066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1267</v>
@@ -10290,19 +10290,19 @@
         <v>946965</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>903870</v>
+        <v>902660</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>990848</v>
+        <v>986590</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4361845929312207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4163343234116641</v>
+        <v>0.4157770083192738</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4563976128269949</v>
+        <v>0.4544362822844967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2363</v>
@@ -10311,19 +10311,19 @@
         <v>2223260</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2152779</v>
+        <v>2152402</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2287755</v>
+        <v>2291666</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.505440812600279</v>
+        <v>0.5054408126002791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4894176308637637</v>
+        <v>0.4893317400973595</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5201033761366679</v>
+        <v>0.5209925283572571</v>
       </c>
     </row>
     <row r="21">
@@ -10415,19 +10415,19 @@
         <v>8380</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3525</v>
+        <v>3483</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18395</v>
+        <v>19967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01177581787892558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004954322593444071</v>
+        <v>0.004894400970188621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02585123807073339</v>
+        <v>0.0280594198105848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -10436,19 +10436,19 @@
         <v>12749</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7588</v>
+        <v>7549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20277</v>
+        <v>19769</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01738279336426884</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01034542906299112</v>
+        <v>0.01029307673398051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0276463463644165</v>
+        <v>0.02695325680167131</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -10457,19 +10457,19 @@
         <v>21129</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13330</v>
+        <v>12597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32265</v>
+        <v>32503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01462171612500245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009224831668976877</v>
+        <v>0.008717125964482974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02232805124625082</v>
+        <v>0.0224926029958314</v>
       </c>
     </row>
     <row r="23">
@@ -10486,19 +10486,19 @@
         <v>6935</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2839</v>
+        <v>3291</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14919</v>
+        <v>14889</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.009745881222113745</v>
+        <v>0.009745881222113744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003989222493367551</v>
+        <v>0.004625205451575001</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02096651216953663</v>
+        <v>0.02092364617909824</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -10507,19 +10507,19 @@
         <v>10267</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5620</v>
+        <v>5791</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18370</v>
+        <v>18440</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01399876997926375</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007662071525310315</v>
+        <v>0.007895459760057623</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02504567703599724</v>
+        <v>0.02514184455745329</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -10528,19 +10528,19 @@
         <v>17202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10366</v>
+        <v>10682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27697</v>
+        <v>28359</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01190449395127075</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007173304040066227</v>
+        <v>0.0073923767615258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01916719115815056</v>
+        <v>0.01962546339876597</v>
       </c>
     </row>
     <row r="24">
@@ -10557,19 +10557,19 @@
         <v>37628</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23824</v>
+        <v>22952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58605</v>
+        <v>58627</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0528795382280848</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03348057944428503</v>
+        <v>0.03225436762615342</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08235880044064528</v>
+        <v>0.0823894758508069</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -10578,19 +10578,19 @@
         <v>38912</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26737</v>
+        <v>27127</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56177</v>
+        <v>58096</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05305355915714732</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03645419424214224</v>
+        <v>0.03698606441567848</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07659358807807783</v>
+        <v>0.07920924691998513</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -10599,19 +10599,19 @@
         <v>76540</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55835</v>
+        <v>56004</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100274</v>
+        <v>101095</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05296786496646529</v>
+        <v>0.05296786496646527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03863920578626057</v>
+        <v>0.0387558680938711</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06939188940579168</v>
+        <v>0.06996004633217794</v>
       </c>
     </row>
     <row r="25">
@@ -10641,19 +10641,19 @@
         <v>33251</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25170</v>
+        <v>24090</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43583</v>
+        <v>43789</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04533565535221756</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03431696097518309</v>
+        <v>0.03284515453991499</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05942279533741163</v>
+        <v>0.05970366859038877</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -10662,19 +10662,19 @@
         <v>33251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24046</v>
+        <v>24959</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43844</v>
+        <v>44294</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02301074124345362</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01664060739469765</v>
+        <v>0.01727222330356071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03034087405178811</v>
+        <v>0.03065259366301774</v>
       </c>
     </row>
     <row r="26">
@@ -10691,19 +10691,19 @@
         <v>130032</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>111695</v>
+        <v>111110</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>150008</v>
+        <v>149199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1827357676471757</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.156965689809361</v>
+        <v>0.1561437907434277</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2108078781191204</v>
+        <v>0.2096707662467997</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>163</v>
@@ -10712,19 +10712,19 @@
         <v>89542</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76515</v>
+        <v>77753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103642</v>
+        <v>103461</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1220835229578984</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1043225930331725</v>
+        <v>0.1060109450284443</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1413074222425302</v>
+        <v>0.1410616862491366</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>342</v>
@@ -10733,19 +10733,19 @@
         <v>219574</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>197141</v>
+        <v>198453</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>243133</v>
+        <v>246331</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1519508788540919</v>
+        <v>0.1519508788540918</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1364264996666352</v>
+        <v>0.137334615602981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1682541217971603</v>
+        <v>0.1704673763974546</v>
       </c>
     </row>
     <row r="27">
@@ -10762,19 +10762,19 @@
         <v>5502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16953</v>
+        <v>16408</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.007731448484782777</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.001317789778967924</v>
+        <v>0.001315231973976063</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02382373596617897</v>
+        <v>0.02305877117987262</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15663</v>
+        <v>13649</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00602708271747546</v>
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02135567444204095</v>
+        <v>0.01860967201688846</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -10804,19 +10804,19 @@
         <v>9922</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2927</v>
+        <v>2907</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>23001</v>
+        <v>21346</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.006866373978833442</v>
+        <v>0.00686637397883344</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002025461484421093</v>
+        <v>0.002011777465660722</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01591707801116026</v>
+        <v>0.01477178269150963</v>
       </c>
     </row>
     <row r="28">
@@ -10833,19 +10833,19 @@
         <v>31463</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22077</v>
+        <v>21457</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44641</v>
+        <v>44356</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04421564245637662</v>
+        <v>0.04421564245637661</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03102510389599689</v>
+        <v>0.03015346559880672</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06273378741326953</v>
+        <v>0.0623341611532005</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>76</v>
@@ -10854,19 +10854,19 @@
         <v>60931</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48566</v>
+        <v>47556</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75370</v>
+        <v>75071</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08307484550762226</v>
+        <v>0.08307484550762224</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06621571125801418</v>
+        <v>0.06483957500385319</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.102762026418357</v>
+        <v>0.1023539589939711</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>105</v>
@@ -10875,19 +10875,19 @@
         <v>92394</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>75150</v>
+        <v>75270</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112707</v>
+        <v>110444</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06393917042552284</v>
+        <v>0.06393917042552283</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05200584255368683</v>
+        <v>0.052088995472047</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07799593834007292</v>
+        <v>0.07643013659191822</v>
       </c>
     </row>
     <row r="29">
@@ -10904,19 +10904,19 @@
         <v>491647</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>465682</v>
+        <v>463540</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>518219</v>
+        <v>517086</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6909159040825408</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.65442724011994</v>
+        <v>0.6514172742995711</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.728258393068307</v>
+        <v>0.7266660624191363</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>653</v>
@@ -10925,19 +10925,19 @@
         <v>483374</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>459824</v>
+        <v>456622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>505940</v>
+        <v>505001</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6590437709641064</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6269350361270614</v>
+        <v>0.6225700977468045</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6898115782356123</v>
+        <v>0.6885312569780838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1090</v>
@@ -10946,19 +10946,19 @@
         <v>975020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>940189</v>
+        <v>939077</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1007590</v>
+        <v>1011085</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6747387604553597</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6506348522850841</v>
+        <v>0.6498649742764023</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.697277504881711</v>
+        <v>0.6996960954728939</v>
       </c>
     </row>
     <row r="30">
@@ -11050,19 +11050,19 @@
         <v>26976</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17438</v>
+        <v>17476</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40065</v>
+        <v>39265</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.007668471913087806</v>
+        <v>0.007668471913087804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00495720929855076</v>
+        <v>0.004968082826220735</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01138942494402518</v>
+        <v>0.01116206587878486</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>187</v>
@@ -11071,19 +11071,19 @@
         <v>115375</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>99358</v>
+        <v>99641</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>133810</v>
+        <v>137666</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03096067645657087</v>
+        <v>0.03096067645657088</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02666255046230022</v>
+        <v>0.02673841187707675</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03590778259500293</v>
+        <v>0.03694249939766631</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>212</v>
@@ -11092,19 +11092,19 @@
         <v>142351</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>123148</v>
+        <v>120874</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>165983</v>
+        <v>165607</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01965017115477342</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01699937867363677</v>
+        <v>0.01668548012786019</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02291234638665386</v>
+        <v>0.02286045795807031</v>
       </c>
     </row>
     <row r="32">
@@ -11121,19 +11121,19 @@
         <v>155151</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>129754</v>
+        <v>133165</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>182001</v>
+        <v>181685</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04410521967511766</v>
+        <v>0.04410521967511767</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03688555679075583</v>
+        <v>0.03785501299551135</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05173781605491425</v>
+        <v>0.05164791683072378</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>127</v>
@@ -11142,19 +11142,19 @@
         <v>82455</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>68496</v>
+        <v>68869</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>98409</v>
+        <v>98319</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02212662218996816</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01838068379471719</v>
+        <v>0.01848081610732616</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02640787327780032</v>
+        <v>0.02638364953799828</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>280</v>
@@ -11163,19 +11163,19 @@
         <v>237606</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>209825</v>
+        <v>210855</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>267057</v>
+        <v>266994</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03279925057590634</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02896432218051966</v>
+        <v>0.02910654802681254</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03686464680088875</v>
+        <v>0.03685598186515868</v>
       </c>
     </row>
     <row r="33">
@@ -11192,19 +11192,19 @@
         <v>257462</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>215863</v>
+        <v>213676</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>310199</v>
+        <v>307201</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07318949058120183</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06136390804751695</v>
+        <v>0.06074206517593676</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08818110986571405</v>
+        <v>0.08732875105867652</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>151</v>
@@ -11213,19 +11213,19 @@
         <v>252449</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>217819</v>
+        <v>215549</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>303060</v>
+        <v>294012</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06774414298030591</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05845122966529854</v>
+        <v>0.05784205900947663</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08132562057140422</v>
+        <v>0.07889759620832239</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>261</v>
@@ -11234,19 +11234,19 @@
         <v>509911</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>450594</v>
+        <v>446867</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>573506</v>
+        <v>575606</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.07038835953761308</v>
+        <v>0.07038835953761309</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06220011015875872</v>
+        <v>0.06168566943985555</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07916706184980546</v>
+        <v>0.07945684340374812</v>
       </c>
     </row>
     <row r="34">
@@ -11263,19 +11263,19 @@
         <v>5351</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2313</v>
+        <v>2302</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10872</v>
+        <v>11510</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.001521140144863237</v>
+        <v>0.001521140144863236</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0006576485753096213</v>
+        <v>0.0006543005676722218</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.003090558887751452</v>
+        <v>0.003272105907698036</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1289</v>
@@ -11284,19 +11284,19 @@
         <v>788489</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>744593</v>
+        <v>749241</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>829802</v>
+        <v>830752</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2115894480687832</v>
+        <v>0.2115894480687831</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1998101862146292</v>
+        <v>0.2010572148930186</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2226757658761137</v>
+        <v>0.222930752113228</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1296</v>
@@ -11305,19 +11305,19 @@
         <v>793840</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>751594</v>
+        <v>751248</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>838414</v>
+        <v>839770</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1095819843236697</v>
+        <v>0.1095819843236696</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1037503536689864</v>
+        <v>0.1037026289383187</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1157349803691525</v>
+        <v>0.1159221763629464</v>
       </c>
     </row>
     <row r="35">
@@ -11334,19 +11334,19 @@
         <v>791363</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>745753</v>
+        <v>748348</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>836631</v>
+        <v>845197</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.2249627938133429</v>
+        <v>0.224962793813343</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2119970945062812</v>
+        <v>0.2127346204837507</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2378311505936211</v>
+        <v>0.240266204915124</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>980</v>
@@ -11355,19 +11355,19 @@
         <v>525274</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>493944</v>
+        <v>492032</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>557495</v>
+        <v>557751</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1409561956525838</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1325488059619759</v>
+        <v>0.1320359255060396</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1496027587069626</v>
+        <v>0.1496713839965491</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2078</v>
@@ -11376,19 +11376,19 @@
         <v>1316637</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1264596</v>
+        <v>1261233</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1372489</v>
+        <v>1366544</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1817491172547203</v>
+        <v>0.1817491172547204</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1745652771351072</v>
+        <v>0.1741010796881243</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1894588757717251</v>
+        <v>0.188638233202739</v>
       </c>
     </row>
     <row r="36">
@@ -11405,19 +11405,19 @@
         <v>35899</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20642</v>
+        <v>21859</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>56520</v>
+        <v>59570</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01020496172644557</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005867830602670716</v>
+        <v>0.006213858434827005</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01606709101683506</v>
+        <v>0.01693401846656249</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>25</v>
@@ -11426,19 +11426,19 @@
         <v>37507</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>23973</v>
+        <v>23492</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>56144</v>
+        <v>56558</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01006498125897441</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006433227537298416</v>
+        <v>0.006304098397171692</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01506609106477494</v>
+        <v>0.01517718191725453</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -11447,19 +11447,19 @@
         <v>73406</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>52612</v>
+        <v>54199</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>99823</v>
+        <v>101067</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01013295463678521</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.007262560406447221</v>
+        <v>0.007481648318921203</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01377954328458567</v>
+        <v>0.01395127835804421</v>
       </c>
     </row>
     <row r="37">
@@ -11476,19 +11476,19 @@
         <v>313674</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>276508</v>
+        <v>278858</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>352723</v>
+        <v>355414</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.08916881829255521</v>
+        <v>0.0891688182925552</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07860347434407645</v>
+        <v>0.0792717487426004</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1002694305989856</v>
+        <v>0.1010343379669166</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>546</v>
@@ -11497,19 +11497,19 @@
         <v>404605</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>372953</v>
+        <v>372767</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>441341</v>
+        <v>440259</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1085749200454007</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1000811732586225</v>
+        <v>0.1000312917819932</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.118432868371749</v>
+        <v>0.1181425027117386</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>821</v>
@@ -11518,19 +11518,19 @@
         <v>718279</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>672993</v>
+        <v>669900</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>766002</v>
+        <v>772204</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.09915147468826334</v>
+        <v>0.09915147468826332</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09290027201890669</v>
+        <v>0.09247321820456324</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1057392239990595</v>
+        <v>0.106595328983088</v>
       </c>
     </row>
     <row r="38">
@@ -11547,19 +11547,19 @@
         <v>1931876</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1865536</v>
+        <v>1858970</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1996097</v>
+        <v>1989633</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.5491791038533858</v>
+        <v>0.5491791038533859</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5303204791974678</v>
+        <v>0.5284540784014848</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5674353696337503</v>
+        <v>0.5655977884668499</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2044</v>
@@ -11568,19 +11568,19 @@
         <v>1520350</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1459072</v>
+        <v>1465268</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1572402</v>
+        <v>1571981</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4079830133474129</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3915390724923767</v>
+        <v>0.3932018213615436</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4219510361875251</v>
+        <v>0.4218381042508756</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3719</v>
@@ -11589,19 +11589,19 @@
         <v>3452226</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3367927</v>
+        <v>3364744</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3537095</v>
+        <v>3539650</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4765466878282685</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.464909969239846</v>
+        <v>0.4644706604051447</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4882620363259121</v>
+        <v>0.4886146397678413</v>
       </c>
     </row>
     <row r="39">
